--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_23_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1630014.542554559</v>
+        <v>1551152.882285208</v>
       </c>
     </row>
     <row r="7">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>89.7740137689637</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>89.77401376896388</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9232672218028</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9232672218028</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>101.9232672218028</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>101.9232672218026</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>68.42349820141654</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>101.9232672218028</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>101.9232672218028</v>
+        <v>68.42349820141614</v>
       </c>
       <c r="I12" t="n">
-        <v>96.88303733070425</v>
+        <v>96.88303733070427</v>
       </c>
       <c r="J12" t="n">
-        <v>26.39074545864588</v>
+        <v>26.3907454586459</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>30.74918469704986</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.1104868976444</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>58.85967159469415</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>89.71901738423963</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>101.9232672218028</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>101.9232672218028</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.05499638472406332</v>
       </c>
       <c r="R14" t="n">
-        <v>101.9232672218028</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>89.77401376896385</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.77401376896385</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.7740137689637</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>101.9232672218028</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="U15" t="n">
-        <v>101.9232672218028</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="W15" t="n">
-        <v>101.9232672218028</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>101.9232672218026</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.85967159469415</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>28.16757858960526</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.69209300508899</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1849,25 +1849,25 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>88.51605541327746</v>
+        <v>97.23005474269968</v>
       </c>
       <c r="G17" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>8.713999329422251</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>84.34461748320858</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>110.388345529859</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="H18" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>96.88303733070425</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>26.39074545864588</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>97.23005474269968</v>
       </c>
     </row>
     <row r="19">
@@ -2040,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.657736526399361</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>30.74918469704986</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>26.45275037124501</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>58.85967159469416</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>97.23005474269974</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>97.23005474269971</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>97.23005474269974</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>97.23005474269971</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="Y21" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>58.85967159469416</v>
       </c>
       <c r="H22" t="n">
-        <v>58.85967159469426</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>8.713999329422307</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6043975439415</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="T23" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="U23" t="n">
-        <v>135.790642079861</v>
+        <v>110.8903982145192</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.400580729543673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.2038168143979</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>119.6043975439415</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="W24" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>30.74918469704988</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>28.11048689764427</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>58.85967159469426</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,43 +2569,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>119.6043975439415</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>135.790642079861</v>
-      </c>
       <c r="S26" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>119.6043975439415</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="G27" t="n">
-        <v>119.6043975439415</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
     </row>
     <row r="28">
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>58.85967159469427</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>58.85967159469432</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="E29" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="V29" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.790642079861</v>
+        <v>119.6043975439415</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>119.6043975439415</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
     </row>
     <row r="31">
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>58.85967159469427</v>
       </c>
       <c r="V31" t="n">
-        <v>58.85967159469426</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="I32" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>0.05499638472400648</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>119.6043975439415</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>119.5494011592175</v>
       </c>
       <c r="X32" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>119.6043975439415</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="G33" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>135.790642079861</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="V33" t="n">
-        <v>119.6043975439415</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>30.74918469704986</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>58.85967159469427</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>28.1104868976444</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>97.17505835797573</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>110.388345529859</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>0.05499638472400648</v>
       </c>
       <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>110.388345529859</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>110.388345529859</v>
       </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.23005474269974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,11 +3344,11 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
         <v>110.388345529859</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>110.388345529859</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>70.83930928405385</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>26.39074545864588</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>70.83930928405384</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>110.388345529859</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>110.388345529859</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>58.85967159469426</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,52 +3511,52 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>110.388345529859</v>
       </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
         <v>110.388345529859</v>
       </c>
-      <c r="G38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>97.23005474269971</v>
+      </c>
+      <c r="T38" t="n">
         <v>110.388345529859</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.05499638472400648</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>97.1750583579757</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3581,76 +3581,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.3470174119954818</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>96.88303733070425</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>110.388345529859</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>97.23005474269974</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="T39" t="n">
         <v>110.388345529859</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>110.388345529859</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3669,46 +3669,46 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>58.85967159469426</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>101.9232672218028</v>
       </c>
       <c r="C41" t="n">
-        <v>89.71901738423985</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>101.9232672218028</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>8.713999329422251</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.05499638472400648</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>81.06001443954165</v>
+      </c>
+      <c r="Y41" t="n">
         <v>101.9232672218028</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>101.9232672218028</v>
-      </c>
-      <c r="X41" t="n">
-        <v>101.9232672218028</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,73 +3821,73 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>101.9232672218028</v>
       </c>
-      <c r="D42" t="n">
+      <c r="V42" t="n">
         <v>101.9232672218028</v>
       </c>
-      <c r="E42" t="n">
+      <c r="W42" t="n">
+        <v>89.77401376896385</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>101.9232672218028</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>89.77401376896388</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>58.85967159469426</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>58.85967159469426</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>101.9232672218028</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>101.9232672218028</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>101.9232672218028</v>
       </c>
-      <c r="H44" t="n">
-        <v>89.77401376896385</v>
-      </c>
       <c r="I44" t="n">
-        <v>101.9232672218028</v>
+        <v>89.71901738423985</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.05499638472400648</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4055,67 +4055,67 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
         <v>101.9232672218028</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
       <c r="D45" t="n">
+        <v>101.9232672218028</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>101.9232672218028</v>
+      </c>
+      <c r="T45" t="n">
         <v>89.77401376896385</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>101.9232672218028</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>101.9232672218028</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4152,43 +4152,43 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>58.85967159469426</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407.6930688872112</v>
+        <v>98.83468336659644</v>
       </c>
       <c r="C11" t="n">
-        <v>407.6930688872112</v>
+        <v>98.83468336659644</v>
       </c>
       <c r="D11" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="E11" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="F11" t="n">
-        <v>317.0122468983588</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="G11" t="n">
-        <v>214.0594517248206</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="H11" t="n">
-        <v>111.1066565512824</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="I11" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="J11" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="K11" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="L11" t="n">
-        <v>57.21276443298329</v>
+        <v>57.21276443298321</v>
       </c>
       <c r="M11" t="n">
-        <v>158.1167989825681</v>
+        <v>158.1167989825679</v>
       </c>
       <c r="N11" t="n">
-        <v>259.0208335321528</v>
+        <v>259.0208335321524</v>
       </c>
       <c r="O11" t="n">
-        <v>342.7122325522683</v>
+        <v>342.7122325522678</v>
       </c>
       <c r="P11" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6930688872104</v>
       </c>
       <c r="Q11" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6930688872104</v>
       </c>
       <c r="R11" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6930688872104</v>
       </c>
       <c r="S11" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="T11" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="U11" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="V11" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="W11" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6930688872112</v>
+        <v>201.7874785401344</v>
       </c>
       <c r="Y11" t="n">
-        <v>407.6930688872112</v>
+        <v>98.83468336659644</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>407.6930688872112</v>
+        <v>201.7874785401344</v>
       </c>
       <c r="C12" t="n">
-        <v>407.6930688872112</v>
+        <v>201.7874785401344</v>
       </c>
       <c r="D12" t="n">
-        <v>407.6930688872112</v>
+        <v>201.7874785401344</v>
       </c>
       <c r="E12" t="n">
-        <v>407.6930688872112</v>
+        <v>201.7874785401344</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5784242393157</v>
+        <v>201.7874785401344</v>
       </c>
       <c r="G12" t="n">
-        <v>235.6256290657775</v>
+        <v>201.7874785401344</v>
       </c>
       <c r="H12" t="n">
         <v>132.6728338922393</v>
@@ -5120,52 +5120,52 @@
         <v>34.81118002284107</v>
       </c>
       <c r="J12" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="K12" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="L12" t="n">
-        <v>94.95969538792929</v>
+        <v>94.95969538792922</v>
       </c>
       <c r="M12" t="n">
-        <v>147.0910417399563</v>
+        <v>195.8637299375138</v>
       </c>
       <c r="N12" t="n">
-        <v>247.995076289541</v>
+        <v>296.7677644870984</v>
       </c>
       <c r="O12" t="n">
-        <v>348.8991108391258</v>
+        <v>397.671799036683</v>
       </c>
       <c r="P12" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6930688872104</v>
       </c>
       <c r="Q12" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6930688872104</v>
       </c>
       <c r="R12" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6930688872104</v>
       </c>
       <c r="S12" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="T12" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="U12" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="V12" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="W12" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="X12" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="Y12" t="n">
-        <v>407.6930688872112</v>
+        <v>304.7402737136724</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="C13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="D13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="E13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="F13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="G13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="H13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="I13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="J13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="K13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="L13" t="n">
-        <v>19.66989710397487</v>
+        <v>19.6698971039748</v>
       </c>
       <c r="M13" t="n">
-        <v>38.43119943905238</v>
+        <v>38.43119943905228</v>
       </c>
       <c r="N13" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="O13" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="P13" t="n">
-        <v>36.54829258748605</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.153861377744224</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="R13" t="n">
-        <v>8.153861377744224</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="S13" t="n">
-        <v>8.153861377744224</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="T13" t="n">
-        <v>8.153861377744224</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="U13" t="n">
-        <v>8.153861377744224</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="V13" t="n">
-        <v>8.153861377744224</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="W13" t="n">
-        <v>8.153861377744224</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="X13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.0594517248206</v>
+        <v>201.7319266363727</v>
       </c>
       <c r="C14" t="n">
-        <v>214.0594517248206</v>
+        <v>201.7319266363727</v>
       </c>
       <c r="D14" t="n">
-        <v>214.0594517248206</v>
+        <v>111.1066565512822</v>
       </c>
       <c r="E14" t="n">
-        <v>214.0594517248206</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="F14" t="n">
-        <v>214.0594517248206</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="G14" t="n">
-        <v>214.0594517248206</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="H14" t="n">
-        <v>111.1066565512824</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="I14" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="J14" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="K14" t="n">
-        <v>52.16373867418887</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="L14" t="n">
-        <v>101.2226417294279</v>
+        <v>101.2226417294276</v>
       </c>
       <c r="M14" t="n">
-        <v>202.1266762790127</v>
+        <v>202.1266762790123</v>
       </c>
       <c r="N14" t="n">
-        <v>303.0307108285975</v>
+        <v>303.0307108285969</v>
       </c>
       <c r="O14" t="n">
-        <v>386.722109848713</v>
+        <v>386.7221098487123</v>
       </c>
       <c r="P14" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6930688872104</v>
       </c>
       <c r="Q14" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834487</v>
       </c>
       <c r="R14" t="n">
-        <v>304.740273713673</v>
+        <v>407.6375169834487</v>
       </c>
       <c r="S14" t="n">
-        <v>214.0594517248206</v>
+        <v>407.6375169834487</v>
       </c>
       <c r="T14" t="n">
-        <v>214.0594517248206</v>
+        <v>407.6375169834487</v>
       </c>
       <c r="U14" t="n">
-        <v>214.0594517248206</v>
+        <v>407.6375169834487</v>
       </c>
       <c r="V14" t="n">
-        <v>214.0594517248206</v>
+        <v>304.6847218099107</v>
       </c>
       <c r="W14" t="n">
-        <v>214.0594517248206</v>
+        <v>201.7319266363727</v>
       </c>
       <c r="X14" t="n">
-        <v>214.0594517248206</v>
+        <v>201.7319266363727</v>
       </c>
       <c r="Y14" t="n">
-        <v>214.0594517248206</v>
+        <v>201.7319266363727</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.153861377744224</v>
+        <v>98.83468336659644</v>
       </c>
       <c r="C15" t="n">
-        <v>8.153861377744224</v>
+        <v>98.83468336659644</v>
       </c>
       <c r="D15" t="n">
-        <v>8.153861377744224</v>
+        <v>98.83468336659644</v>
       </c>
       <c r="E15" t="n">
-        <v>8.153861377744224</v>
+        <v>98.83468336659644</v>
       </c>
       <c r="F15" t="n">
-        <v>8.153861377744224</v>
+        <v>98.83468336659644</v>
       </c>
       <c r="G15" t="n">
-        <v>8.153861377744224</v>
+        <v>98.83468336659644</v>
       </c>
       <c r="H15" t="n">
-        <v>8.153861377744224</v>
+        <v>98.83468336659644</v>
       </c>
       <c r="I15" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="J15" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="K15" t="n">
-        <v>8.153861377744224</v>
+        <v>22.32817774181069</v>
       </c>
       <c r="L15" t="n">
-        <v>46.18700719037149</v>
+        <v>109.1340117519957</v>
       </c>
       <c r="M15" t="n">
-        <v>147.0910417399563</v>
+        <v>210.0380463015803</v>
       </c>
       <c r="N15" t="n">
-        <v>247.995076289541</v>
+        <v>310.9420808511649</v>
       </c>
       <c r="O15" t="n">
-        <v>348.8991108391258</v>
+        <v>348.899110839125</v>
       </c>
       <c r="P15" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6930688872104</v>
       </c>
       <c r="Q15" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6930688872104</v>
       </c>
       <c r="R15" t="n">
-        <v>304.740273713673</v>
+        <v>407.6930688872104</v>
       </c>
       <c r="S15" t="n">
-        <v>304.740273713673</v>
+        <v>407.6930688872104</v>
       </c>
       <c r="T15" t="n">
-        <v>304.740273713673</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="U15" t="n">
-        <v>201.7874785401348</v>
+        <v>304.7402737136724</v>
       </c>
       <c r="V15" t="n">
-        <v>201.7874785401348</v>
+        <v>201.7874785401344</v>
       </c>
       <c r="W15" t="n">
-        <v>98.83468336659661</v>
+        <v>201.7874785401344</v>
       </c>
       <c r="X15" t="n">
-        <v>98.83468336659661</v>
+        <v>201.7874785401344</v>
       </c>
       <c r="Y15" t="n">
-        <v>98.83468336659661</v>
+        <v>98.83468336659644</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="C16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="D16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="E16" t="n">
-        <v>67.60807510975863</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="F16" t="n">
-        <v>67.60807510975863</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="G16" t="n">
-        <v>67.60807510975863</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="H16" t="n">
-        <v>67.60807510975863</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="I16" t="n">
-        <v>67.60807510975863</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="J16" t="n">
-        <v>39.15597552429877</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="K16" t="n">
-        <v>8.153861377744224</v>
+        <v>8.153861377744208</v>
       </c>
       <c r="L16" t="n">
-        <v>19.66989710397487</v>
+        <v>19.6698971039748</v>
       </c>
       <c r="M16" t="n">
-        <v>38.43119943905238</v>
+        <v>38.43119943905228</v>
       </c>
       <c r="N16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="O16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="P16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="R16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="S16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="T16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="U16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="V16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="W16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="X16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.60807510975863</v>
+        <v>67.6080751097585</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>441.5533821194358</v>
+        <v>218.546623473256</v>
       </c>
       <c r="C17" t="n">
-        <v>441.5533821194358</v>
+        <v>218.546623473256</v>
       </c>
       <c r="D17" t="n">
-        <v>441.5533821194358</v>
+        <v>107.0432441501662</v>
       </c>
       <c r="E17" t="n">
-        <v>441.5533821194358</v>
+        <v>107.0432441501662</v>
       </c>
       <c r="F17" t="n">
-        <v>352.1432251363273</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="G17" t="n">
-        <v>240.6398458132374</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="H17" t="n">
-        <v>129.1364664901475</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="I17" t="n">
-        <v>17.63308716705766</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J17" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="K17" t="n">
-        <v>77.64362438143786</v>
+        <v>77.64362438143803</v>
       </c>
       <c r="L17" t="n">
-        <v>126.7025274366769</v>
+        <v>126.702527436677</v>
       </c>
       <c r="M17" t="n">
         <v>227.6065619862617</v>
       </c>
       <c r="N17" t="n">
-        <v>336.8910240608221</v>
+        <v>336.891024060822</v>
       </c>
       <c r="O17" t="n">
-        <v>420.5824230809376</v>
+        <v>420.5824230809374</v>
       </c>
       <c r="P17" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="Q17" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="R17" t="n">
-        <v>441.5533821194358</v>
+        <v>330.0500027963458</v>
       </c>
       <c r="S17" t="n">
-        <v>441.5533821194358</v>
+        <v>218.546623473256</v>
       </c>
       <c r="T17" t="n">
-        <v>441.5533821194358</v>
+        <v>218.546623473256</v>
       </c>
       <c r="U17" t="n">
-        <v>441.5533821194358</v>
+        <v>218.546623473256</v>
       </c>
       <c r="V17" t="n">
-        <v>441.5533821194358</v>
+        <v>218.546623473256</v>
       </c>
       <c r="W17" t="n">
-        <v>441.5533821194358</v>
+        <v>218.546623473256</v>
       </c>
       <c r="X17" t="n">
-        <v>441.5533821194358</v>
+        <v>218.546623473256</v>
       </c>
       <c r="Y17" t="n">
-        <v>441.5533821194358</v>
+        <v>218.546623473256</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>441.5533821194358</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="C18" t="n">
-        <v>441.5533821194358</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="D18" t="n">
-        <v>441.5533821194358</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="E18" t="n">
-        <v>441.5533821194358</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="F18" t="n">
-        <v>356.3567988030635</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="G18" t="n">
-        <v>244.8534194799737</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="H18" t="n">
-        <v>133.3500401568838</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="I18" t="n">
-        <v>35.48838628748557</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J18" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="K18" t="n">
-        <v>8.831067642388716</v>
+        <v>23.00538400645519</v>
       </c>
       <c r="L18" t="n">
-        <v>95.63690165257378</v>
+        <v>109.8112180166402</v>
       </c>
       <c r="M18" t="n">
-        <v>204.9213637271341</v>
+        <v>164.9902227502821</v>
       </c>
       <c r="N18" t="n">
-        <v>314.2058258016945</v>
+        <v>274.2746848248424</v>
       </c>
       <c r="O18" t="n">
-        <v>382.7594240713504</v>
+        <v>382.7594240713502</v>
       </c>
       <c r="P18" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="Q18" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="R18" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="S18" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="T18" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="U18" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="V18" t="n">
-        <v>441.5533821194358</v>
+        <v>330.0500027963458</v>
       </c>
       <c r="W18" t="n">
-        <v>441.5533821194358</v>
+        <v>330.0500027963458</v>
       </c>
       <c r="X18" t="n">
-        <v>441.5533821194358</v>
+        <v>330.0500027963458</v>
       </c>
       <c r="Y18" t="n">
-        <v>441.5533821194358</v>
+        <v>231.8378262885683</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="C19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="D19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="E19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="F19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="G19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="H19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="I19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="K19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="L19" t="n">
-        <v>393.6152041136521</v>
+        <v>20.3471033686193</v>
       </c>
       <c r="M19" t="n">
-        <v>412.3765064487296</v>
+        <v>39.10840570369679</v>
       </c>
       <c r="N19" t="n">
-        <v>441.5533821194358</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="O19" t="n">
-        <v>439.8789007796385</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="P19" t="n">
-        <v>408.8191182573659</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="Q19" t="n">
-        <v>382.0991683874214</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="R19" t="n">
-        <v>382.0991683874214</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="S19" t="n">
-        <v>382.0991683874214</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="T19" t="n">
-        <v>382.0991683874214</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="U19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="V19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="W19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="X19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="Y19" t="n">
-        <v>382.0991683874214</v>
+        <v>8.831067642388712</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>107.0432441501662</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="C20" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="D20" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="E20" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="F20" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="G20" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="H20" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="I20" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J20" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="K20" t="n">
-        <v>77.64362438143786</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="L20" t="n">
-        <v>126.7025274366769</v>
+        <v>57.88997069762772</v>
       </c>
       <c r="M20" t="n">
-        <v>227.6065619862617</v>
+        <v>158.7940052472124</v>
       </c>
       <c r="N20" t="n">
-        <v>336.8910240608221</v>
+        <v>268.0784673217727</v>
       </c>
       <c r="O20" t="n">
-        <v>420.5824230809376</v>
+        <v>351.7698663418881</v>
       </c>
       <c r="P20" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="Q20" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="R20" t="n">
-        <v>441.5533821194358</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="S20" t="n">
-        <v>441.5533821194358</v>
+        <v>231.8378262885683</v>
       </c>
       <c r="T20" t="n">
-        <v>441.5533821194358</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="U20" t="n">
-        <v>441.5533821194358</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="V20" t="n">
-        <v>441.5533821194358</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="W20" t="n">
-        <v>441.5533821194358</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="X20" t="n">
-        <v>330.050002796346</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.5466234732561</v>
+        <v>8.831067642388712</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>218.5466234732561</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="C21" t="n">
-        <v>120.3344469654786</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="D21" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="E21" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="F21" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="G21" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="H21" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="I21" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J21" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="K21" t="n">
-        <v>23.00538400645522</v>
+        <v>23.00538400645519</v>
       </c>
       <c r="L21" t="n">
-        <v>109.8112180166403</v>
+        <v>109.8112180166402</v>
       </c>
       <c r="M21" t="n">
-        <v>219.0956800912006</v>
+        <v>219.0956800912005</v>
       </c>
       <c r="N21" t="n">
-        <v>328.380142165761</v>
+        <v>328.3801421657608</v>
       </c>
       <c r="O21" t="n">
-        <v>436.8648814122688</v>
+        <v>436.8648814122686</v>
       </c>
       <c r="P21" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="Q21" t="n">
-        <v>441.5533821194358</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="R21" t="n">
-        <v>441.5533821194358</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="S21" t="n">
-        <v>441.5533821194358</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="T21" t="n">
-        <v>441.5533821194358</v>
+        <v>231.8378262885683</v>
       </c>
       <c r="U21" t="n">
-        <v>441.5533821194358</v>
+        <v>231.8378262885683</v>
       </c>
       <c r="V21" t="n">
-        <v>441.5533821194358</v>
+        <v>231.8378262885683</v>
       </c>
       <c r="W21" t="n">
-        <v>441.5533821194358</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="X21" t="n">
-        <v>441.5533821194358</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="Y21" t="n">
-        <v>330.050002796346</v>
+        <v>8.831067642388712</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="C22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="D22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="E22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="F22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="G22" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="H22" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="I22" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J22" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="K22" t="n">
-        <v>8.831067642388716</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="L22" t="n">
-        <v>20.34710336861936</v>
+        <v>20.3471033686193</v>
       </c>
       <c r="M22" t="n">
-        <v>39.10840570369687</v>
+        <v>39.10840570369679</v>
       </c>
       <c r="N22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="O22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="P22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="R22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="S22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="T22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="U22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="V22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="W22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="X22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.28528137440313</v>
+        <v>68.28528137440301</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.86325136638888</v>
+        <v>156.8275356181901</v>
       </c>
       <c r="C23" t="n">
-        <v>10.86325136638888</v>
+        <v>19.66527089105787</v>
       </c>
       <c r="D23" t="n">
-        <v>10.86325136638888</v>
+        <v>19.66527089105787</v>
       </c>
       <c r="E23" t="n">
-        <v>10.86325136638888</v>
+        <v>19.66527089105787</v>
       </c>
       <c r="F23" t="n">
-        <v>10.86325136638888</v>
+        <v>19.66527089105787</v>
       </c>
       <c r="G23" t="n">
-        <v>10.86325136638888</v>
+        <v>19.66527089105787</v>
       </c>
       <c r="H23" t="n">
-        <v>10.86325136638888</v>
+        <v>19.66527089105787</v>
       </c>
       <c r="I23" t="n">
-        <v>10.86325136638888</v>
+        <v>19.66527089105787</v>
       </c>
       <c r="J23" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K23" t="n">
-        <v>10.86325136638888</v>
+        <v>90.34054279930086</v>
       </c>
       <c r="L23" t="n">
-        <v>59.92215442162794</v>
+        <v>139.3994458545399</v>
       </c>
       <c r="M23" t="n">
-        <v>194.3548900806903</v>
+        <v>240.3034804041245</v>
       </c>
       <c r="N23" t="n">
-        <v>328.7876257397527</v>
+        <v>349.5879424786848</v>
       </c>
       <c r="O23" t="n">
-        <v>439.3606217976061</v>
+        <v>439.3606217976059</v>
       </c>
       <c r="P23" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="Q23" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="R23" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="S23" t="n">
-        <v>422.3500455477858</v>
+        <v>406.0003035923115</v>
       </c>
       <c r="T23" t="n">
-        <v>285.1877808206535</v>
+        <v>268.8380388651792</v>
       </c>
       <c r="U23" t="n">
-        <v>148.0255160935212</v>
+        <v>156.8275356181901</v>
       </c>
       <c r="V23" t="n">
-        <v>148.0255160935212</v>
+        <v>156.8275356181901</v>
       </c>
       <c r="W23" t="n">
-        <v>148.0255160935212</v>
+        <v>156.8275356181901</v>
       </c>
       <c r="X23" t="n">
-        <v>10.86325136638888</v>
+        <v>156.8275356181901</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.86325136638888</v>
+        <v>156.8275356181901</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.86325136638888</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="C24" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="D24" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E24" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F24" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G24" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H24" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I24" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J24" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K24" t="n">
-        <v>25.03756773045538</v>
+        <v>25.03756773045529</v>
       </c>
       <c r="L24" t="n">
-        <v>111.8434017406404</v>
+        <v>111.8434017406403</v>
       </c>
       <c r="M24" t="n">
-        <v>241.4511353657884</v>
+        <v>241.4511353657883</v>
       </c>
       <c r="N24" t="n">
-        <v>375.8838710248507</v>
+        <v>375.8838710248506</v>
       </c>
       <c r="O24" t="n">
-        <v>484.3686102713585</v>
+        <v>484.3686102713583</v>
       </c>
       <c r="P24" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="Q24" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="R24" t="n">
-        <v>423.7647735574259</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="S24" t="n">
-        <v>423.7647735574259</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="T24" t="n">
-        <v>423.7647735574259</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="U24" t="n">
-        <v>423.7647735574259</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="V24" t="n">
-        <v>286.6025088302936</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="W24" t="n">
-        <v>149.4402441031613</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="X24" t="n">
-        <v>149.4402441031613</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.27797937602895</v>
+        <v>148.0255160935211</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="C25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="D25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="L25" t="n">
-        <v>22.37928709261952</v>
+        <v>22.37928709261946</v>
       </c>
       <c r="M25" t="n">
-        <v>41.14058942769704</v>
+        <v>41.14058942769695</v>
       </c>
       <c r="N25" t="n">
-        <v>70.31746509840329</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="O25" t="n">
-        <v>70.31746509840329</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="P25" t="n">
-        <v>70.31746509840329</v>
+        <v>39.25768257613056</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.31746509840329</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="R25" t="n">
-        <v>70.31746509840329</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="S25" t="n">
-        <v>70.31746509840329</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="T25" t="n">
-        <v>70.31746509840329</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="U25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="V25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="W25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="X25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>268.8380388651793</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="C26" t="n">
-        <v>268.8380388651793</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="D26" t="n">
-        <v>268.8380388651793</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="E26" t="n">
-        <v>268.8380388651793</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="F26" t="n">
-        <v>268.8380388651793</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="G26" t="n">
-        <v>131.675774138047</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H26" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I26" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J26" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K26" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="L26" t="n">
-        <v>145.2959870254513</v>
+        <v>145.2959870254512</v>
       </c>
       <c r="M26" t="n">
-        <v>278.474411547323</v>
+        <v>279.7287226845135</v>
       </c>
       <c r="N26" t="n">
-        <v>387.7588736218834</v>
+        <v>389.0131847590739</v>
       </c>
       <c r="O26" t="n">
-        <v>522.1916092809457</v>
+        <v>522.1916092809455</v>
       </c>
       <c r="P26" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="Q26" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="R26" t="n">
-        <v>406.0003035923116</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="S26" t="n">
-        <v>268.8380388651793</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="T26" t="n">
-        <v>268.8380388651793</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="U26" t="n">
-        <v>268.8380388651793</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="V26" t="n">
-        <v>268.8380388651793</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="W26" t="n">
-        <v>268.8380388651793</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="X26" t="n">
-        <v>268.8380388651793</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="Y26" t="n">
-        <v>268.8380388651793</v>
+        <v>285.1877808206534</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>131.675774138047</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="C27" t="n">
-        <v>131.675774138047</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="D27" t="n">
-        <v>131.675774138047</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="E27" t="n">
-        <v>131.675774138047</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="F27" t="n">
-        <v>131.675774138047</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G27" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H27" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I27" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J27" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K27" t="n">
-        <v>25.03756773045524</v>
+        <v>25.03756773045539</v>
       </c>
       <c r="L27" t="n">
-        <v>111.8434017406403</v>
+        <v>111.8434017406404</v>
       </c>
       <c r="M27" t="n">
-        <v>241.4511353657883</v>
+        <v>241.4511353657882</v>
       </c>
       <c r="N27" t="n">
-        <v>375.8838710248507</v>
+        <v>375.8838710248505</v>
       </c>
       <c r="O27" t="n">
-        <v>484.3686102713585</v>
+        <v>484.3686102713583</v>
       </c>
       <c r="P27" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="Q27" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="R27" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="S27" t="n">
-        <v>406.0003035923116</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="T27" t="n">
-        <v>406.0003035923116</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="U27" t="n">
-        <v>406.0003035923116</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="V27" t="n">
-        <v>406.0003035923116</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="W27" t="n">
-        <v>268.8380388651793</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="X27" t="n">
-        <v>268.8380388651793</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="Y27" t="n">
-        <v>131.675774138047</v>
+        <v>406.0003035923115</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="C28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="D28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="L28" t="n">
-        <v>495.2243903136601</v>
+        <v>22.37928709261952</v>
       </c>
       <c r="M28" t="n">
-        <v>513.9856926487377</v>
+        <v>41.14058942769704</v>
       </c>
       <c r="N28" t="n">
-        <v>543.1625683194439</v>
+        <v>70.31746509840329</v>
       </c>
       <c r="O28" t="n">
-        <v>543.1625683194439</v>
+        <v>70.31746509840329</v>
       </c>
       <c r="P28" t="n">
-        <v>543.1625683194439</v>
+        <v>70.31746509840329</v>
       </c>
       <c r="Q28" t="n">
-        <v>543.1625683194439</v>
+        <v>70.31746509840329</v>
       </c>
       <c r="R28" t="n">
-        <v>543.1625683194439</v>
+        <v>70.31746509840329</v>
       </c>
       <c r="S28" t="n">
-        <v>543.1625683194439</v>
+        <v>70.31746509840329</v>
       </c>
       <c r="T28" t="n">
-        <v>543.1625683194439</v>
+        <v>70.31746509840329</v>
       </c>
       <c r="U28" t="n">
-        <v>543.1625683194439</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="V28" t="n">
-        <v>543.1625683194439</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="W28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="X28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="Y28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>148.0255160935212</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="C29" t="n">
-        <v>148.0255160935212</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="D29" t="n">
-        <v>148.0255160935212</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E29" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F29" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G29" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H29" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I29" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J29" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K29" t="n">
-        <v>10.86325136638888</v>
+        <v>90.34054279930092</v>
       </c>
       <c r="L29" t="n">
-        <v>145.2959870254513</v>
+        <v>145.4807261533452</v>
       </c>
       <c r="M29" t="n">
-        <v>253.326137962821</v>
+        <v>246.38476070293</v>
       </c>
       <c r="N29" t="n">
-        <v>387.7588736218834</v>
+        <v>355.6692227774903</v>
       </c>
       <c r="O29" t="n">
-        <v>522.1916092809457</v>
+        <v>439.3606217976059</v>
       </c>
       <c r="P29" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="Q29" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="R29" t="n">
-        <v>422.3500455477858</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="S29" t="n">
-        <v>422.3500455477858</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="T29" t="n">
-        <v>285.1877808206535</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="U29" t="n">
-        <v>285.1877808206535</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="V29" t="n">
-        <v>148.0255160935212</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="W29" t="n">
-        <v>148.0255160935212</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="X29" t="n">
-        <v>148.0255160935212</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="Y29" t="n">
-        <v>148.0255160935212</v>
+        <v>285.1877808206534</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>148.0255160935212</v>
+        <v>131.675774138047</v>
       </c>
       <c r="C30" t="n">
-        <v>148.0255160935212</v>
+        <v>131.675774138047</v>
       </c>
       <c r="D30" t="n">
-        <v>148.0255160935212</v>
+        <v>131.675774138047</v>
       </c>
       <c r="E30" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F30" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G30" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H30" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I30" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J30" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K30" t="n">
-        <v>25.03756773045524</v>
+        <v>25.03756773045539</v>
       </c>
       <c r="L30" t="n">
-        <v>111.8434017406403</v>
+        <v>111.8434017406404</v>
       </c>
       <c r="M30" t="n">
-        <v>241.4511353657883</v>
+        <v>241.4511353657884</v>
       </c>
       <c r="N30" t="n">
         <v>375.8838710248507</v>
@@ -6563,31 +6563,31 @@
         <v>543.1625683194439</v>
       </c>
       <c r="Q30" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="R30" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="S30" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="T30" t="n">
-        <v>422.3500455477858</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="U30" t="n">
-        <v>285.1877808206535</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="V30" t="n">
-        <v>148.0255160935212</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="W30" t="n">
-        <v>148.0255160935212</v>
+        <v>406.0003035923115</v>
       </c>
       <c r="X30" t="n">
-        <v>148.0255160935212</v>
+        <v>268.8380388651792</v>
       </c>
       <c r="Y30" t="n">
-        <v>148.0255160935212</v>
+        <v>131.675774138047</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="C31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="D31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="L31" t="n">
         <v>22.37928709261952</v>
@@ -6654,19 +6654,19 @@
         <v>70.31746509840329</v>
       </c>
       <c r="U31" t="n">
-        <v>70.31746509840329</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="V31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="W31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="X31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.1877808206535</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="C32" t="n">
-        <v>285.1877808206535</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="D32" t="n">
-        <v>285.1877808206535</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="E32" t="n">
-        <v>285.1877808206535</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="F32" t="n">
-        <v>285.1877808206535</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="G32" t="n">
-        <v>148.0255160935212</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="H32" t="n">
-        <v>148.0255160935212</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I32" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J32" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K32" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="L32" t="n">
-        <v>145.2959870254513</v>
+        <v>145.2959870254512</v>
       </c>
       <c r="M32" t="n">
-        <v>253.326137962821</v>
+        <v>246.200021575036</v>
       </c>
       <c r="N32" t="n">
-        <v>387.7588736218834</v>
+        <v>355.6692227774903</v>
       </c>
       <c r="O32" t="n">
-        <v>522.1916092809457</v>
+        <v>439.3606217976059</v>
       </c>
       <c r="P32" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="Q32" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1070164156821</v>
       </c>
       <c r="R32" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1070164156821</v>
       </c>
       <c r="S32" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1070164156821</v>
       </c>
       <c r="T32" t="n">
-        <v>422.3500455477858</v>
+        <v>543.1070164156821</v>
       </c>
       <c r="U32" t="n">
-        <v>422.3500455477858</v>
+        <v>543.1070164156821</v>
       </c>
       <c r="V32" t="n">
-        <v>422.3500455477858</v>
+        <v>543.1070164156821</v>
       </c>
       <c r="W32" t="n">
-        <v>422.3500455477858</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="X32" t="n">
-        <v>285.1877808206535</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="Y32" t="n">
-        <v>285.1877808206535</v>
+        <v>422.3500455477857</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>148.0255160935212</v>
+        <v>268.8380388651792</v>
       </c>
       <c r="C33" t="n">
-        <v>148.0255160935212</v>
+        <v>268.8380388651792</v>
       </c>
       <c r="D33" t="n">
-        <v>148.0255160935212</v>
+        <v>268.8380388651792</v>
       </c>
       <c r="E33" t="n">
-        <v>148.0255160935212</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="F33" t="n">
-        <v>148.0255160935212</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G33" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H33" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I33" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J33" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K33" t="n">
-        <v>25.03756773045524</v>
+        <v>25.03756773045539</v>
       </c>
       <c r="L33" t="n">
-        <v>111.8434017406403</v>
+        <v>111.8434017406404</v>
       </c>
       <c r="M33" t="n">
-        <v>241.4511353657883</v>
+        <v>241.4511353657884</v>
       </c>
       <c r="N33" t="n">
         <v>375.8838710248507</v>
@@ -6800,31 +6800,31 @@
         <v>543.1625683194439</v>
       </c>
       <c r="Q33" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="R33" t="n">
-        <v>543.1625683194439</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="S33" t="n">
-        <v>406.0003035923116</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="T33" t="n">
-        <v>406.0003035923116</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="U33" t="n">
-        <v>268.8380388651793</v>
+        <v>406.0003035923115</v>
       </c>
       <c r="V33" t="n">
-        <v>148.0255160935212</v>
+        <v>268.8380388651792</v>
       </c>
       <c r="W33" t="n">
-        <v>148.0255160935212</v>
+        <v>268.8380388651792</v>
       </c>
       <c r="X33" t="n">
-        <v>148.0255160935212</v>
+        <v>268.8380388651792</v>
       </c>
       <c r="Y33" t="n">
-        <v>148.0255160935212</v>
+        <v>268.8380388651792</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="C34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="D34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="L34" t="n">
         <v>22.37928709261952</v>
@@ -6876,34 +6876,34 @@
         <v>70.31746509840329</v>
       </c>
       <c r="P34" t="n">
-        <v>39.2576825761307</v>
+        <v>70.31746509840329</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2576825761307</v>
+        <v>70.31746509840329</v>
       </c>
       <c r="R34" t="n">
-        <v>39.2576825761307</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="S34" t="n">
-        <v>39.2576825761307</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="T34" t="n">
-        <v>39.2576825761307</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="U34" t="n">
-        <v>39.2576825761307</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="V34" t="n">
-        <v>39.2576825761307</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="W34" t="n">
-        <v>39.2576825761307</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="X34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.86325136638888</v>
+        <v>10.86325136638887</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.831067642388716</v>
+        <v>218.4910715694945</v>
       </c>
       <c r="C35" t="n">
-        <v>8.831067642388716</v>
+        <v>120.3344469654786</v>
       </c>
       <c r="D35" t="n">
-        <v>8.831067642388716</v>
+        <v>120.3344469654786</v>
       </c>
       <c r="E35" t="n">
-        <v>8.831067642388716</v>
+        <v>120.3344469654786</v>
       </c>
       <c r="F35" t="n">
-        <v>8.831067642388716</v>
+        <v>120.3344469654786</v>
       </c>
       <c r="G35" t="n">
-        <v>8.831067642388716</v>
+        <v>120.3344469654786</v>
       </c>
       <c r="H35" t="n">
         <v>8.831067642388716</v>
@@ -6940,16 +6940,16 @@
         <v>8.831067642388716</v>
       </c>
       <c r="K35" t="n">
-        <v>77.64362438143786</v>
+        <v>8.831067642388716</v>
       </c>
       <c r="L35" t="n">
-        <v>126.7025274366769</v>
+        <v>101.1094643822321</v>
       </c>
       <c r="M35" t="n">
-        <v>227.6065619862617</v>
+        <v>202.0134989318169</v>
       </c>
       <c r="N35" t="n">
-        <v>336.8910240608221</v>
+        <v>311.2979610063772</v>
       </c>
       <c r="O35" t="n">
         <v>420.5824230809376</v>
@@ -6958,31 +6958,31 @@
         <v>441.5533821194358</v>
       </c>
       <c r="Q35" t="n">
-        <v>441.5533821194358</v>
+        <v>441.4978302156742</v>
       </c>
       <c r="R35" t="n">
-        <v>330.050002796346</v>
+        <v>441.4978302156742</v>
       </c>
       <c r="S35" t="n">
-        <v>218.5466234732561</v>
+        <v>441.4978302156742</v>
       </c>
       <c r="T35" t="n">
-        <v>218.5466234732561</v>
+        <v>329.9944508925843</v>
       </c>
       <c r="U35" t="n">
-        <v>218.5466234732561</v>
+        <v>329.9944508925843</v>
       </c>
       <c r="V35" t="n">
-        <v>218.5466234732561</v>
+        <v>218.4910715694945</v>
       </c>
       <c r="W35" t="n">
-        <v>107.0432441501662</v>
+        <v>218.4910715694945</v>
       </c>
       <c r="X35" t="n">
-        <v>107.0432441501662</v>
+        <v>218.4910715694945</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.831067642388716</v>
+        <v>218.4910715694945</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>107.0432441501662</v>
+        <v>258.4951449336653</v>
       </c>
       <c r="C36" t="n">
-        <v>107.0432441501662</v>
+        <v>146.9917656105754</v>
       </c>
       <c r="D36" t="n">
-        <v>107.0432441501662</v>
+        <v>146.9917656105754</v>
       </c>
       <c r="E36" t="n">
-        <v>107.0432441501662</v>
+        <v>146.9917656105754</v>
       </c>
       <c r="F36" t="n">
-        <v>107.0432441501662</v>
+        <v>146.9917656105754</v>
       </c>
       <c r="G36" t="n">
-        <v>107.0432441501662</v>
+        <v>35.48838628748557</v>
       </c>
       <c r="H36" t="n">
-        <v>107.0432441501662</v>
+        <v>35.48838628748557</v>
       </c>
       <c r="I36" t="n">
         <v>35.48838628748557</v>
@@ -7019,19 +7019,19 @@
         <v>8.831067642388716</v>
       </c>
       <c r="K36" t="n">
-        <v>8.831067642388716</v>
+        <v>23.00538400645522</v>
       </c>
       <c r="L36" t="n">
-        <v>95.63690165257378</v>
+        <v>109.8112180166403</v>
       </c>
       <c r="M36" t="n">
-        <v>204.9213637271341</v>
+        <v>219.0956800912006</v>
       </c>
       <c r="N36" t="n">
-        <v>314.2058258016945</v>
+        <v>328.380142165761</v>
       </c>
       <c r="O36" t="n">
-        <v>382.7594240713504</v>
+        <v>436.8648814122688</v>
       </c>
       <c r="P36" t="n">
         <v>441.5533821194358</v>
@@ -7049,19 +7049,19 @@
         <v>441.5533821194358</v>
       </c>
       <c r="U36" t="n">
-        <v>441.5533821194358</v>
+        <v>369.9985242567552</v>
       </c>
       <c r="V36" t="n">
-        <v>441.5533821194358</v>
+        <v>369.9985242567552</v>
       </c>
       <c r="W36" t="n">
-        <v>330.050002796346</v>
+        <v>369.9985242567552</v>
       </c>
       <c r="X36" t="n">
-        <v>218.5466234732561</v>
+        <v>258.4951449336653</v>
       </c>
       <c r="Y36" t="n">
-        <v>218.5466234732561</v>
+        <v>258.4951449336653</v>
       </c>
     </row>
     <row r="37">
@@ -7128,16 +7128,16 @@
         <v>68.28528137440313</v>
       </c>
       <c r="U37" t="n">
-        <v>8.831067642388716</v>
+        <v>68.28528137440313</v>
       </c>
       <c r="V37" t="n">
-        <v>8.831067642388716</v>
+        <v>68.28528137440313</v>
       </c>
       <c r="W37" t="n">
-        <v>8.831067642388716</v>
+        <v>68.28528137440313</v>
       </c>
       <c r="X37" t="n">
-        <v>8.831067642388716</v>
+        <v>68.28528137440313</v>
       </c>
       <c r="Y37" t="n">
         <v>8.831067642388716</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>343.3412056116583</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="C38" t="n">
-        <v>343.3412056116583</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="D38" t="n">
-        <v>343.3412056116583</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="E38" t="n">
         <v>231.8378262885684</v>
       </c>
       <c r="F38" t="n">
+        <v>231.8378262885684</v>
+      </c>
+      <c r="G38" t="n">
+        <v>231.8378262885684</v>
+      </c>
+      <c r="H38" t="n">
         <v>120.3344469654786</v>
-      </c>
-      <c r="G38" t="n">
-        <v>8.831067642388716</v>
-      </c>
-      <c r="H38" t="n">
-        <v>8.831067642388716</v>
       </c>
       <c r="I38" t="n">
         <v>8.831067642388716</v>
@@ -7177,49 +7177,49 @@
         <v>8.831067642388716</v>
       </c>
       <c r="K38" t="n">
-        <v>8.831067642388716</v>
+        <v>77.64362438143786</v>
       </c>
       <c r="L38" t="n">
-        <v>57.88997069762778</v>
+        <v>126.7025274366769</v>
       </c>
       <c r="M38" t="n">
-        <v>158.7940052472126</v>
+        <v>227.6065619862617</v>
       </c>
       <c r="N38" t="n">
-        <v>268.0784673217729</v>
+        <v>336.8910240608221</v>
       </c>
       <c r="O38" t="n">
-        <v>351.7698663418884</v>
+        <v>420.5824230809376</v>
       </c>
       <c r="P38" t="n">
         <v>441.5533821194358</v>
       </c>
       <c r="Q38" t="n">
-        <v>441.4978302156742</v>
+        <v>441.5533821194358</v>
       </c>
       <c r="R38" t="n">
-        <v>441.4978302156742</v>
+        <v>441.5533821194358</v>
       </c>
       <c r="S38" t="n">
         <v>343.3412056116583</v>
       </c>
       <c r="T38" t="n">
-        <v>343.3412056116583</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="U38" t="n">
-        <v>343.3412056116583</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="V38" t="n">
-        <v>343.3412056116583</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="W38" t="n">
-        <v>343.3412056116583</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="X38" t="n">
-        <v>343.3412056116583</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="Y38" t="n">
-        <v>343.3412056116583</v>
+        <v>231.8378262885684</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>330.050002796346</v>
+        <v>106.692721511787</v>
       </c>
       <c r="C39" t="n">
-        <v>218.5466234732561</v>
+        <v>106.692721511787</v>
       </c>
       <c r="D39" t="n">
-        <v>218.5466234732561</v>
+        <v>106.692721511787</v>
       </c>
       <c r="E39" t="n">
-        <v>120.3344469654786</v>
+        <v>106.692721511787</v>
       </c>
       <c r="F39" t="n">
-        <v>120.3344469654786</v>
+        <v>106.692721511787</v>
       </c>
       <c r="G39" t="n">
-        <v>120.3344469654786</v>
+        <v>106.692721511787</v>
       </c>
       <c r="H39" t="n">
-        <v>8.831067642388716</v>
+        <v>106.692721511787</v>
       </c>
       <c r="I39" t="n">
         <v>8.831067642388716</v>
@@ -7262,7 +7262,7 @@
         <v>109.8112180166403</v>
       </c>
       <c r="M39" t="n">
-        <v>164.9902227502822</v>
+        <v>219.0956800912006</v>
       </c>
       <c r="N39" t="n">
         <v>274.2746848248426</v>
@@ -7280,25 +7280,25 @@
         <v>441.5533821194358</v>
       </c>
       <c r="S39" t="n">
-        <v>441.5533821194358</v>
+        <v>330.050002796346</v>
       </c>
       <c r="T39" t="n">
-        <v>441.5533821194358</v>
+        <v>218.5466234732561</v>
       </c>
       <c r="U39" t="n">
-        <v>330.050002796346</v>
+        <v>218.5466234732561</v>
       </c>
       <c r="V39" t="n">
-        <v>330.050002796346</v>
+        <v>218.5466234732561</v>
       </c>
       <c r="W39" t="n">
-        <v>330.050002796346</v>
+        <v>218.5466234732561</v>
       </c>
       <c r="X39" t="n">
-        <v>330.050002796346</v>
+        <v>218.5466234732561</v>
       </c>
       <c r="Y39" t="n">
-        <v>330.050002796346</v>
+        <v>107.0432441501662</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388716</v>
       </c>
       <c r="C40" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388716</v>
       </c>
       <c r="D40" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388716</v>
       </c>
       <c r="E40" t="n">
         <v>8.831067642388716</v>
@@ -7356,28 +7356,28 @@
         <v>68.28528137440313</v>
       </c>
       <c r="R40" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388716</v>
       </c>
       <c r="S40" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388716</v>
       </c>
       <c r="T40" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388716</v>
       </c>
       <c r="U40" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388716</v>
       </c>
       <c r="V40" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388716</v>
       </c>
       <c r="W40" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388716</v>
       </c>
       <c r="X40" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388716</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.28528137440313</v>
+        <v>8.831067642388716</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.77913146283498</v>
+        <v>119.9086760759513</v>
       </c>
       <c r="C41" t="n">
-        <v>8.153861377744224</v>
+        <v>119.9086760759513</v>
       </c>
       <c r="D41" t="n">
-        <v>8.153861377744224</v>
+        <v>16.95588090241316</v>
       </c>
       <c r="E41" t="n">
-        <v>8.153861377744224</v>
+        <v>16.95588090241316</v>
       </c>
       <c r="F41" t="n">
-        <v>8.153861377744224</v>
+        <v>16.95588090241316</v>
       </c>
       <c r="G41" t="n">
-        <v>8.153861377744224</v>
+        <v>16.95588090241316</v>
       </c>
       <c r="H41" t="n">
-        <v>8.153861377744224</v>
+        <v>16.95588090241316</v>
       </c>
       <c r="I41" t="n">
-        <v>8.153861377744224</v>
+        <v>16.95588090241316</v>
       </c>
       <c r="J41" t="n">
         <v>8.153861377744224</v>
@@ -7432,31 +7432,31 @@
         <v>407.6930688872112</v>
       </c>
       <c r="Q41" t="n">
-        <v>407.6375169834496</v>
+        <v>407.6930688872112</v>
       </c>
       <c r="R41" t="n">
-        <v>407.6375169834496</v>
+        <v>407.6930688872112</v>
       </c>
       <c r="S41" t="n">
-        <v>304.6847218099114</v>
+        <v>407.6930688872112</v>
       </c>
       <c r="T41" t="n">
-        <v>304.6847218099114</v>
+        <v>407.6930688872112</v>
       </c>
       <c r="U41" t="n">
-        <v>304.6847218099114</v>
+        <v>407.6930688872112</v>
       </c>
       <c r="V41" t="n">
-        <v>304.6847218099114</v>
+        <v>407.6930688872112</v>
       </c>
       <c r="W41" t="n">
-        <v>201.7319266363732</v>
+        <v>407.6930688872112</v>
       </c>
       <c r="X41" t="n">
-        <v>98.77913146283498</v>
+        <v>325.8142664230277</v>
       </c>
       <c r="Y41" t="n">
-        <v>98.77913146283498</v>
+        <v>222.8614712494895</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>317.0122468983588</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="C42" t="n">
-        <v>214.0594517248206</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="D42" t="n">
-        <v>111.1066565512824</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="E42" t="n">
         <v>8.153861377744224</v>
@@ -7493,16 +7493,16 @@
         <v>8.153861377744224</v>
       </c>
       <c r="K42" t="n">
-        <v>8.153861377744224</v>
+        <v>22.32817774181073</v>
       </c>
       <c r="L42" t="n">
-        <v>94.95969538792929</v>
+        <v>109.1340117519958</v>
       </c>
       <c r="M42" t="n">
-        <v>195.8637299375141</v>
+        <v>210.0380463015806</v>
       </c>
       <c r="N42" t="n">
-        <v>296.7677644870988</v>
+        <v>310.9420808511654</v>
       </c>
       <c r="O42" t="n">
         <v>348.8991108391258</v>
@@ -7523,19 +7523,19 @@
         <v>407.6930688872112</v>
       </c>
       <c r="U42" t="n">
-        <v>317.0122468983588</v>
+        <v>304.740273713673</v>
       </c>
       <c r="V42" t="n">
-        <v>317.0122468983588</v>
+        <v>201.7874785401348</v>
       </c>
       <c r="W42" t="n">
-        <v>317.0122468983588</v>
+        <v>111.1066565512824</v>
       </c>
       <c r="X42" t="n">
-        <v>317.0122468983588</v>
+        <v>111.1066565512824</v>
       </c>
       <c r="Y42" t="n">
-        <v>317.0122468983588</v>
+        <v>8.153861377744224</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.153861377744224</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="C43" t="n">
-        <v>8.153861377744224</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="D43" t="n">
-        <v>8.153861377744224</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="E43" t="n">
-        <v>8.153861377744224</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="F43" t="n">
-        <v>8.153861377744224</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="G43" t="n">
         <v>8.153861377744224</v>
@@ -7599,22 +7599,22 @@
         <v>67.60807510975863</v>
       </c>
       <c r="T43" t="n">
-        <v>8.153861377744224</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="U43" t="n">
-        <v>8.153861377744224</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="V43" t="n">
-        <v>8.153861377744224</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="W43" t="n">
-        <v>8.153861377744224</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="X43" t="n">
-        <v>8.153861377744224</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.153861377744224</v>
+        <v>67.60807510975863</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834496</v>
       </c>
       <c r="C44" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834496</v>
       </c>
       <c r="D44" t="n">
-        <v>304.740273713673</v>
+        <v>304.6847218099114</v>
       </c>
       <c r="E44" t="n">
-        <v>304.740273713673</v>
+        <v>201.7319266363732</v>
       </c>
       <c r="F44" t="n">
-        <v>304.740273713673</v>
+        <v>201.7319266363732</v>
       </c>
       <c r="G44" t="n">
-        <v>201.7874785401348</v>
+        <v>201.7319266363732</v>
       </c>
       <c r="H44" t="n">
-        <v>111.1066565512824</v>
+        <v>98.77913146283498</v>
       </c>
       <c r="I44" t="n">
         <v>8.153861377744224</v>
@@ -7669,31 +7669,31 @@
         <v>407.6930688872112</v>
       </c>
       <c r="Q44" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834496</v>
       </c>
       <c r="R44" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834496</v>
       </c>
       <c r="S44" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834496</v>
       </c>
       <c r="T44" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834496</v>
       </c>
       <c r="U44" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834496</v>
       </c>
       <c r="V44" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834496</v>
       </c>
       <c r="W44" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834496</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834496</v>
       </c>
       <c r="Y44" t="n">
-        <v>407.6930688872112</v>
+        <v>407.6375169834496</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>201.7874785401348</v>
+        <v>214.0594517248206</v>
       </c>
       <c r="C45" t="n">
-        <v>201.7874785401348</v>
+        <v>111.1066565512824</v>
       </c>
       <c r="D45" t="n">
-        <v>111.1066565512824</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="E45" t="n">
-        <v>111.1066565512824</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="F45" t="n">
-        <v>111.1066565512824</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="G45" t="n">
-        <v>111.1066565512824</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="H45" t="n">
         <v>8.153861377744224</v>
@@ -7730,16 +7730,16 @@
         <v>8.153861377744224</v>
       </c>
       <c r="K45" t="n">
-        <v>8.153861377744224</v>
+        <v>22.32817774181073</v>
       </c>
       <c r="L45" t="n">
-        <v>46.18700719037149</v>
+        <v>109.1340117519958</v>
       </c>
       <c r="M45" t="n">
-        <v>147.0910417399563</v>
+        <v>210.0380463015806</v>
       </c>
       <c r="N45" t="n">
-        <v>247.995076289541</v>
+        <v>310.9420808511654</v>
       </c>
       <c r="O45" t="n">
         <v>348.8991108391258</v>
@@ -7754,25 +7754,25 @@
         <v>407.6930688872112</v>
       </c>
       <c r="S45" t="n">
-        <v>407.6930688872112</v>
+        <v>304.740273713673</v>
       </c>
       <c r="T45" t="n">
-        <v>407.6930688872112</v>
+        <v>214.0594517248206</v>
       </c>
       <c r="U45" t="n">
-        <v>407.6930688872112</v>
+        <v>214.0594517248206</v>
       </c>
       <c r="V45" t="n">
-        <v>304.740273713673</v>
+        <v>214.0594517248206</v>
       </c>
       <c r="W45" t="n">
-        <v>304.740273713673</v>
+        <v>214.0594517248206</v>
       </c>
       <c r="X45" t="n">
-        <v>304.740273713673</v>
+        <v>214.0594517248206</v>
       </c>
       <c r="Y45" t="n">
-        <v>304.740273713673</v>
+        <v>214.0594517248206</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="C46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="D46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="E46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="F46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="G46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="H46" t="n">
-        <v>348.2388551551968</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="I46" t="n">
-        <v>348.2388551551968</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="J46" t="n">
-        <v>348.2388551551968</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="K46" t="n">
-        <v>348.2388551551968</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="L46" t="n">
-        <v>359.7548908814275</v>
+        <v>19.66989710397487</v>
       </c>
       <c r="M46" t="n">
-        <v>378.516193216505</v>
+        <v>38.43119943905238</v>
       </c>
       <c r="N46" t="n">
-        <v>407.6930688872112</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="O46" t="n">
-        <v>407.6930688872112</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="P46" t="n">
-        <v>407.6930688872112</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="Q46" t="n">
-        <v>407.6930688872112</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="R46" t="n">
-        <v>407.6930688872112</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="S46" t="n">
-        <v>407.6930688872112</v>
+        <v>67.60807510975863</v>
       </c>
       <c r="T46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="U46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="V46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="W46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="X46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
       <c r="Y46" t="n">
-        <v>407.6930688872112</v>
+        <v>8.153861377744224</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>3.997714912026026</v>
+        <v>3.997714912026083</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>44.45442151156023</v>
+        <v>44.45442151156</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.04507153431538</v>
+        <v>34.04507153431541</v>
       </c>
       <c r="R12" t="n">
         <v>11.83563415094341</v>
@@ -8929,10 +8929,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>48.45213642358627</v>
+        <v>3.997714912026083</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>44.45442151155999</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.04507153431538</v>
+        <v>34.04507153431541</v>
       </c>
       <c r="R15" t="n">
         <v>11.83563415094341</v>
@@ -9166,7 +9166,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>73.50534798177263</v>
+        <v>73.50534798177287</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.04507153431538</v>
+        <v>34.04507153431541</v>
       </c>
       <c r="R18" t="n">
         <v>11.83563415094341</v>
@@ -9403,7 +9403,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>73.50534798177263</v>
+        <v>3.997714912026083</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>69.50763306974679</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.04507153431538</v>
+        <v>34.04507153431541</v>
       </c>
       <c r="R21" t="n">
         <v>11.83563415094341</v>
@@ -9640,19 +9640,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>3.997714912026026</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>33.86737485805818</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>25.40229655000203</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>27.15312832094739</v>
+        <v>6.142707372531049</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.04507153431538</v>
+        <v>34.04507153431541</v>
       </c>
       <c r="R24" t="n">
         <v>11.83563415094341</v>
@@ -9880,16 +9880,16 @@
         <v>3.997714912026026</v>
       </c>
       <c r="L26" t="n">
-        <v>86.23619454931648</v>
+        <v>86.23619454931642</v>
       </c>
       <c r="M26" t="n">
-        <v>32.600393911401</v>
+        <v>33.86737485805813</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>51.25387539287567</v>
+        <v>49.98689444621834</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>3.997714912026026</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
-        <v>86.23619454931648</v>
+        <v>6.142707372530509</v>
       </c>
       <c r="M29" t="n">
-        <v>7.198097361398922</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>25.40229655000206</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>51.25387539287567</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10354,19 +10354,19 @@
         <v>3.997714912026026</v>
       </c>
       <c r="L32" t="n">
-        <v>86.23619454931648</v>
+        <v>86.23619454931642</v>
       </c>
       <c r="M32" t="n">
-        <v>7.198097361398922</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>25.40229655000206</v>
+        <v>0.1866051796909147</v>
       </c>
       <c r="O32" t="n">
-        <v>51.25387539287567</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10588,10 +10588,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>73.50534798177263</v>
+        <v>3.997714912026026</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>43.65605422687305</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>25.85157884287361</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>3.997714912026026</v>
+        <v>73.50534798177263</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>69.50763306974662</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -23263,25 +23263,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D11" t="n">
-        <v>319.1317556432476</v>
+        <v>229.3577418742839</v>
       </c>
       <c r="E11" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>309.3724038044052</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>319.1679423953333</v>
+        <v>421.0912096171361</v>
       </c>
       <c r="H11" t="n">
-        <v>236.5801551489033</v>
+        <v>338.5034223707061</v>
       </c>
       <c r="I11" t="n">
-        <v>109.3637253637199</v>
+        <v>211.2869925855227</v>
       </c>
       <c r="J11" t="n">
-        <v>8.713999329422251</v>
+        <v>8.713999329422307</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.05499638472400648</v>
+        <v>0.05499638472406332</v>
       </c>
       <c r="R11" t="n">
         <v>141.2290200343808</v>
       </c>
       <c r="S11" t="n">
-        <v>210.4435150733009</v>
+        <v>108.5202478514983</v>
       </c>
       <c r="T11" t="n">
         <v>214.5749735244659</v>
@@ -23323,10 +23323,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X11" t="n">
-        <v>348.8168793035129</v>
+        <v>246.8936120817103</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>276.0057091733795</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188.0127573810344</v>
+        <v>86.08949015923184</v>
       </c>
       <c r="C12" t="n">
         <v>203.8424276152394</v>
@@ -23348,13 +23348,13 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>105.5608499239074</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>58.50883939253683</v>
+        <v>160.4321066143396</v>
       </c>
       <c r="H12" t="n">
-        <v>30.19789075885706</v>
+        <v>63.69765977924372</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>118.2038168143979</v>
       </c>
       <c r="S12" t="n">
-        <v>197.1961324302366</v>
+        <v>95.27286520843396</v>
       </c>
       <c r="T12" t="n">
         <v>227.7459611595986</v>
@@ -23439,10 +23439,10 @@
         <v>153.0404982131692</v>
       </c>
       <c r="J13" t="n">
-        <v>97.73275032999753</v>
+        <v>97.73275032999754</v>
       </c>
       <c r="K13" t="n">
-        <v>30.69209300508899</v>
+        <v>30.69209300508902</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23454,13 +23454,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.657736526399361</v>
+        <v>1.65773652639939</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>30.74918469704988</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.6103959326083</v>
+        <v>110.7208828302527</v>
       </c>
       <c r="R13" t="n">
         <v>199.081979577582</v>
@@ -23481,7 +23481,7 @@
         <v>294.4857951463376</v>
       </c>
       <c r="X13" t="n">
-        <v>217.7416213385031</v>
+        <v>158.8819497438089</v>
       </c>
       <c r="Y13" t="n">
         <v>215.5502738121359</v>
@@ -23500,10 +23500,10 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>229.412738259008</v>
       </c>
       <c r="E14" t="n">
-        <v>359.9585549362873</v>
+        <v>258.0352877144848</v>
       </c>
       <c r="F14" t="n">
         <v>399.146417573369</v>
@@ -23512,13 +23512,13 @@
         <v>421.0912096171361</v>
       </c>
       <c r="H14" t="n">
-        <v>236.5801551489033</v>
+        <v>338.5034223707061</v>
       </c>
       <c r="I14" t="n">
-        <v>109.3637253637199</v>
+        <v>211.2869925855227</v>
       </c>
       <c r="J14" t="n">
-        <v>8.713999329422251</v>
+        <v>8.713999329422307</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05499638472400648</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.30575281257799</v>
+        <v>141.2290200343808</v>
       </c>
       <c r="S14" t="n">
-        <v>120.6695013043371</v>
+        <v>210.4435150733009</v>
       </c>
       <c r="T14" t="n">
         <v>214.5749735244659</v>
@@ -23554,10 +23554,10 @@
         <v>248.7016845801699</v>
       </c>
       <c r="V14" t="n">
-        <v>313.3044420010231</v>
+        <v>211.3811747792205</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3917254792934</v>
+        <v>223.4684582574908</v>
       </c>
       <c r="X14" t="n">
         <v>348.8168793035129</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.23874361207059</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C15" t="n">
         <v>203.8424276152394</v>
@@ -23594,10 +23594,10 @@
         <v>132.1211579806599</v>
       </c>
       <c r="I15" t="n">
-        <v>96.88303733070425</v>
+        <v>7.109023561740571</v>
       </c>
       <c r="J15" t="n">
-        <v>26.39074545864588</v>
+        <v>26.3907454586459</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>16.28054959259505</v>
+        <v>118.2038168143979</v>
       </c>
       <c r="S15" t="n">
         <v>197.1961324302366</v>
       </c>
       <c r="T15" t="n">
-        <v>227.7459611595986</v>
+        <v>125.822693937796</v>
       </c>
       <c r="U15" t="n">
-        <v>147.6879412143133</v>
+        <v>249.6112084361161</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>147.3766579583698</v>
       </c>
       <c r="W15" t="n">
-        <v>181.3259895411283</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y15" t="n">
-        <v>242.8962664135933</v>
+        <v>140.9729991917907</v>
       </c>
     </row>
     <row r="16">
@@ -23661,7 +23661,7 @@
         <v>141.3987433365328</v>
       </c>
       <c r="E16" t="n">
-        <v>136.4317244039137</v>
+        <v>77.57205280921958</v>
       </c>
       <c r="F16" t="n">
         <v>131.7685403657761</v>
@@ -23676,10 +23676,10 @@
         <v>153.0404982131692</v>
       </c>
       <c r="J16" t="n">
-        <v>69.56517174039226</v>
+        <v>97.73275032999754</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>30.69209300508902</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23691,10 +23691,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.657736526399361</v>
+        <v>1.65773652639939</v>
       </c>
       <c r="P16" t="n">
-        <v>30.74918469704986</v>
+        <v>30.74918469704988</v>
       </c>
       <c r="Q16" t="n">
         <v>110.7208828302527</v>
@@ -23737,25 +23737,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>208.7434101133887</v>
       </c>
       <c r="E17" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
-        <v>310.6303621600916</v>
+        <v>301.9163628306694</v>
       </c>
       <c r="G17" t="n">
-        <v>310.7028640872771</v>
+        <v>421.0912096171361</v>
       </c>
       <c r="H17" t="n">
-        <v>228.1150768408472</v>
+        <v>338.5034223707061</v>
       </c>
       <c r="I17" t="n">
-        <v>100.8986470556638</v>
+        <v>211.2869925855227</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>8.713999329422307</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05499638472400648</v>
+        <v>0.05499638472406332</v>
       </c>
       <c r="R17" t="n">
-        <v>141.2290200343808</v>
+        <v>30.84067450452193</v>
       </c>
       <c r="S17" t="n">
-        <v>210.4435150733009</v>
+        <v>100.055169543442</v>
       </c>
       <c r="T17" t="n">
         <v>214.5749735244659</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>188.0127573810344</v>
+        <v>77.62441185117555</v>
       </c>
       <c r="C18" t="n">
         <v>203.8424276152394</v>
@@ -23822,19 +23822,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F18" t="n">
-        <v>89.63973064211534</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>50.04376108448068</v>
+        <v>50.04376108448074</v>
       </c>
       <c r="H18" t="n">
-        <v>21.73281245080091</v>
+        <v>132.1211579806599</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>96.88303733070427</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>26.3907454586459</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>249.6112084361161</v>
       </c>
       <c r="V18" t="n">
-        <v>249.2999251801724</v>
+        <v>138.9115796503135</v>
       </c>
       <c r="W18" t="n">
         <v>283.2492567629311</v>
@@ -23879,7 +23879,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y18" t="n">
-        <v>242.8962664135933</v>
+        <v>145.6662116708937</v>
       </c>
     </row>
     <row r="19">
@@ -23913,10 +23913,10 @@
         <v>153.0404982131692</v>
       </c>
       <c r="J19" t="n">
-        <v>97.73275032999753</v>
+        <v>97.73275032999754</v>
       </c>
       <c r="K19" t="n">
-        <v>30.69209300508899</v>
+        <v>30.69209300508902</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23928,13 +23928,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.65773652639939</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>30.74918469704988</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.26813245900769</v>
+        <v>110.7208828302527</v>
       </c>
       <c r="R19" t="n">
         <v>199.081979577582</v>
@@ -23946,7 +23946,7 @@
         <v>215.9987707883102</v>
       </c>
       <c r="U19" t="n">
-        <v>291.1929263587522</v>
+        <v>232.333254764058</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>254.1679820672042</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
-        <v>236.3670647315087</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D20" t="n">
         <v>319.1317556432476</v>
@@ -23992,7 +23992,7 @@
         <v>211.2869925855227</v>
       </c>
       <c r="J20" t="n">
-        <v>8.713999329422251</v>
+        <v>8.713999329422307</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05499638472400648</v>
+        <v>0.05499638472406332</v>
       </c>
       <c r="R20" t="n">
-        <v>141.2290200343808</v>
+        <v>43.99896529168112</v>
       </c>
       <c r="S20" t="n">
-        <v>210.4435150733009</v>
+        <v>100.055169543442</v>
       </c>
       <c r="T20" t="n">
-        <v>214.5749735244659</v>
+        <v>104.186627994607</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7016845801699</v>
+        <v>138.313339050311</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24034,10 +24034,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X20" t="n">
-        <v>238.428533773654</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
-        <v>267.5406308653232</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.62441185117549</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>106.6123728725397</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>61.71059684965326</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
         <v>187.4605452976028</v>
@@ -24068,10 +24068,10 @@
         <v>132.1211579806599</v>
       </c>
       <c r="I21" t="n">
-        <v>96.88303733070425</v>
+        <v>96.88303733070427</v>
       </c>
       <c r="J21" t="n">
-        <v>26.39074545864588</v>
+        <v>26.3907454586459</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.2038168143979</v>
+        <v>20.97376207169816</v>
       </c>
       <c r="S21" t="n">
         <v>197.1961324302366</v>
       </c>
       <c r="T21" t="n">
-        <v>227.7459611595986</v>
+        <v>117.3576156297397</v>
       </c>
       <c r="U21" t="n">
         <v>249.6112084361161</v>
@@ -24110,13 +24110,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2492567629311</v>
+        <v>172.8609112330722</v>
       </c>
       <c r="X21" t="n">
-        <v>230.033063710963</v>
+        <v>119.6447181811041</v>
       </c>
       <c r="Y21" t="n">
-        <v>132.5079208837344</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="22">
@@ -24141,19 +24141,19 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>168.7457315505393</v>
+        <v>109.8860599558451</v>
       </c>
       <c r="H22" t="n">
-        <v>104.3734112600114</v>
+        <v>163.2330828547056</v>
       </c>
       <c r="I22" t="n">
         <v>153.0404982131692</v>
       </c>
       <c r="J22" t="n">
-        <v>97.73275032999753</v>
+        <v>97.73275032999754</v>
       </c>
       <c r="K22" t="n">
-        <v>30.69209300508899</v>
+        <v>30.69209300508902</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24165,10 +24165,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.657736526399361</v>
+        <v>1.65773652639939</v>
       </c>
       <c r="P22" t="n">
-        <v>30.74918469704986</v>
+        <v>30.74918469704988</v>
       </c>
       <c r="Q22" t="n">
         <v>110.7208828302527</v>
@@ -24208,7 +24208,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
-        <v>333.5971194742085</v>
+        <v>197.8064773943475</v>
       </c>
       <c r="D23" t="n">
         <v>319.1317556432476</v>
@@ -24229,7 +24229,7 @@
         <v>211.2869925855227</v>
       </c>
       <c r="J23" t="n">
-        <v>8.713999329422251</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.05499638472400648</v>
+        <v>0.05499638472406332</v>
       </c>
       <c r="R23" t="n">
         <v>141.2290200343808</v>
       </c>
       <c r="S23" t="n">
-        <v>90.83911752935943</v>
+        <v>74.65287299344001</v>
       </c>
       <c r="T23" t="n">
-        <v>78.7843314446049</v>
+        <v>78.78433144460496</v>
       </c>
       <c r="U23" t="n">
-        <v>112.9110425003089</v>
+        <v>137.8112863656507</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24271,7 +24271,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>213.0262372236519</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
         <v>377.9289763951821</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>186.6121766514908</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>203.8424276152394</v>
+        <v>68.05178553537846</v>
       </c>
       <c r="D24" t="n">
         <v>172.0989423795122</v>
@@ -24305,10 +24305,10 @@
         <v>132.1211579806599</v>
       </c>
       <c r="I24" t="n">
-        <v>96.88303733070425</v>
+        <v>96.88303733070427</v>
       </c>
       <c r="J24" t="n">
-        <v>26.39074545864588</v>
+        <v>26.3907454586459</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.2038168143979</v>
       </c>
       <c r="S24" t="n">
-        <v>197.1961324302366</v>
+        <v>77.5917348862951</v>
       </c>
       <c r="T24" t="n">
-        <v>227.7459611595986</v>
+        <v>91.95531907973768</v>
       </c>
       <c r="U24" t="n">
         <v>249.6112084361161</v>
@@ -24347,13 +24347,13 @@
         <v>113.5092831003114</v>
       </c>
       <c r="W24" t="n">
-        <v>147.4586146830701</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>107.1056243337324</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24387,10 +24387,10 @@
         <v>153.0404982131692</v>
       </c>
       <c r="J25" t="n">
-        <v>97.73275032999753</v>
+        <v>97.73275032999754</v>
       </c>
       <c r="K25" t="n">
-        <v>30.69209300508899</v>
+        <v>30.69209300508902</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24402,13 +24402,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.657736526399361</v>
+        <v>1.65773652639939</v>
       </c>
       <c r="P25" t="n">
-        <v>30.74918469704986</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7208828302527</v>
+        <v>82.61039593260844</v>
       </c>
       <c r="R25" t="n">
         <v>199.081979577582</v>
@@ -24420,7 +24420,7 @@
         <v>215.9987707883102</v>
       </c>
       <c r="U25" t="n">
-        <v>232.3332547640579</v>
+        <v>291.1929263587522</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24448,7 +24448,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
-        <v>319.1317556432476</v>
+        <v>183.3411135633867</v>
       </c>
       <c r="E26" t="n">
         <v>359.9585549362873</v>
@@ -24460,7 +24460,7 @@
         <v>285.3005675372751</v>
       </c>
       <c r="H26" t="n">
-        <v>218.8990248267646</v>
+        <v>338.5034223707061</v>
       </c>
       <c r="I26" t="n">
         <v>211.2869925855227</v>
@@ -24490,10 +24490,10 @@
         <v>0.05499638472400648</v>
       </c>
       <c r="R26" t="n">
-        <v>5.438377954519808</v>
+        <v>21.62462249043934</v>
       </c>
       <c r="S26" t="n">
-        <v>74.65287299343996</v>
+        <v>210.4435150733009</v>
       </c>
       <c r="T26" t="n">
         <v>214.5749735244659</v>
@@ -24502,7 +24502,7 @@
         <v>248.7016845801699</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>177.5137999211622</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.0127573810344</v>
+        <v>68.40835983709299</v>
       </c>
       <c r="C27" t="n">
-        <v>203.8424276152394</v>
+        <v>68.05178553537846</v>
       </c>
       <c r="D27" t="n">
         <v>172.0989423795122</v>
@@ -24533,10 +24533,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>173.9843481253239</v>
+        <v>38.19370604546299</v>
       </c>
       <c r="G27" t="n">
-        <v>40.82770907039809</v>
+        <v>160.4321066143396</v>
       </c>
       <c r="H27" t="n">
         <v>132.1211579806599</v>
@@ -24572,7 +24572,7 @@
         <v>118.2038168143979</v>
       </c>
       <c r="S27" t="n">
-        <v>61.40549035037557</v>
+        <v>197.1961324302366</v>
       </c>
       <c r="T27" t="n">
         <v>227.7459611595986</v>
@@ -24584,7 +24584,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>147.4586146830701</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
@@ -24657,13 +24657,13 @@
         <v>215.9987707883102</v>
       </c>
       <c r="U28" t="n">
-        <v>291.1929263587522</v>
+        <v>232.3332547640579</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
       </c>
       <c r="W28" t="n">
-        <v>235.6261235516433</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X28" t="n">
         <v>217.7416213385031</v>
@@ -24682,13 +24682,13 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>333.5971194742085</v>
+        <v>197.8064773943475</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>183.3411135633867</v>
       </c>
       <c r="E29" t="n">
-        <v>224.1679128564263</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
         <v>399.146417573369</v>
@@ -24727,19 +24727,19 @@
         <v>0.05499638472400648</v>
       </c>
       <c r="R29" t="n">
-        <v>21.62462249043928</v>
+        <v>21.62462249043934</v>
       </c>
       <c r="S29" t="n">
         <v>210.4435150733009</v>
       </c>
       <c r="T29" t="n">
-        <v>78.7843314446049</v>
+        <v>214.5749735244659</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7016845801699</v>
+        <v>112.911042500309</v>
       </c>
       <c r="V29" t="n">
-        <v>177.5137999211621</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24767,7 +24767,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
-        <v>51.66990321774185</v>
+        <v>67.85614775366135</v>
       </c>
       <c r="F30" t="n">
         <v>173.9843481253239</v>
@@ -24812,22 +24812,22 @@
         <v>197.1961324302366</v>
       </c>
       <c r="T30" t="n">
-        <v>108.1415636156571</v>
+        <v>227.7459611595986</v>
       </c>
       <c r="U30" t="n">
-        <v>113.8205663562551</v>
+        <v>249.6112084361161</v>
       </c>
       <c r="V30" t="n">
-        <v>113.5092831003114</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>147.4586146830702</v>
       </c>
       <c r="X30" t="n">
-        <v>230.033063710963</v>
+        <v>94.24242163110205</v>
       </c>
       <c r="Y30" t="n">
-        <v>242.8962664135933</v>
+        <v>107.1056243337324</v>
       </c>
     </row>
     <row r="31">
@@ -24894,10 +24894,10 @@
         <v>215.9987707883102</v>
       </c>
       <c r="U31" t="n">
-        <v>291.1929263587522</v>
+        <v>232.3332547640579</v>
       </c>
       <c r="V31" t="n">
-        <v>178.5018784815775</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W31" t="n">
         <v>294.4857951463376</v>
@@ -24919,7 +24919,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
-        <v>333.5971194742085</v>
+        <v>197.8064773943475</v>
       </c>
       <c r="D32" t="n">
         <v>319.1317556432476</v>
@@ -24934,10 +24934,10 @@
         <v>285.3005675372751</v>
       </c>
       <c r="H32" t="n">
-        <v>338.5034223707061</v>
+        <v>202.7127802908452</v>
       </c>
       <c r="I32" t="n">
-        <v>75.49635050566175</v>
+        <v>211.2869925855227</v>
       </c>
       <c r="J32" t="n">
         <v>8.713999329422251</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.05499638472400648</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>141.2290200343808</v>
@@ -24970,7 +24970,7 @@
         <v>210.4435150733009</v>
       </c>
       <c r="T32" t="n">
-        <v>94.97057598052437</v>
+        <v>214.5749735244659</v>
       </c>
       <c r="U32" t="n">
         <v>248.7016845801699</v>
@@ -24979,10 +24979,10 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>325.3917254792934</v>
+        <v>205.8423243200759</v>
       </c>
       <c r="X32" t="n">
-        <v>213.0262372236519</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
         <v>377.9289763951821</v>
@@ -25004,13 +25004,13 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
-        <v>187.4605452976028</v>
+        <v>67.85614775366135</v>
       </c>
       <c r="F33" t="n">
-        <v>173.9843481253239</v>
+        <v>38.19370604546299</v>
       </c>
       <c r="G33" t="n">
-        <v>24.64146453447864</v>
+        <v>160.4321066143396</v>
       </c>
       <c r="H33" t="n">
         <v>132.1211579806599</v>
@@ -25046,16 +25046,16 @@
         <v>118.2038168143979</v>
       </c>
       <c r="S33" t="n">
-        <v>61.40549035037557</v>
+        <v>197.1961324302366</v>
       </c>
       <c r="T33" t="n">
         <v>227.7459611595986</v>
       </c>
       <c r="U33" t="n">
-        <v>113.8205663562551</v>
+        <v>113.8205663562552</v>
       </c>
       <c r="V33" t="n">
-        <v>129.6955276362308</v>
+        <v>113.5092831003114</v>
       </c>
       <c r="W33" t="n">
         <v>283.2492567629311</v>
@@ -25116,13 +25116,13 @@
         <v>1.657736526399361</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>30.74918469704986</v>
       </c>
       <c r="Q34" t="n">
         <v>110.7208828302527</v>
       </c>
       <c r="R34" t="n">
-        <v>199.081979577582</v>
+        <v>140.2223079828877</v>
       </c>
       <c r="S34" t="n">
         <v>235.1761702616857</v>
@@ -25140,7 +25140,7 @@
         <v>294.4857951463376</v>
       </c>
       <c r="X34" t="n">
-        <v>189.6311344408587</v>
+        <v>217.7416213385031</v>
       </c>
       <c r="Y34" t="n">
         <v>215.5502738121359</v>
@@ -25156,7 +25156,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>333.5971194742085</v>
+        <v>236.4220611162327</v>
       </c>
       <c r="D35" t="n">
         <v>319.1317556432476</v>
@@ -25171,7 +25171,7 @@
         <v>421.0912096171361</v>
       </c>
       <c r="H35" t="n">
-        <v>338.5034223707061</v>
+        <v>228.1150768408472</v>
       </c>
       <c r="I35" t="n">
         <v>211.2869925855227</v>
@@ -25198,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.05499638472400648</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>30.84067450452184</v>
+        <v>141.2290200343808</v>
       </c>
       <c r="S35" t="n">
-        <v>100.055169543442</v>
+        <v>210.4435150733009</v>
       </c>
       <c r="T35" t="n">
-        <v>214.5749735244659</v>
+        <v>104.1866279946069</v>
       </c>
       <c r="U35" t="n">
         <v>248.7016845801699</v>
       </c>
       <c r="V35" t="n">
-        <v>313.3044420010231</v>
+        <v>202.9160964711642</v>
       </c>
       <c r="W35" t="n">
-        <v>215.0033799494344</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>280.6989216524824</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.62441185117549</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
-        <v>203.8424276152394</v>
+        <v>93.45408208538043</v>
       </c>
       <c r="D36" t="n">
         <v>172.0989423795122</v>
@@ -25247,13 +25247,13 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.4321066143396</v>
+        <v>50.04376108448068</v>
       </c>
       <c r="H36" t="n">
         <v>132.1211579806599</v>
       </c>
       <c r="I36" t="n">
-        <v>26.0437280466504</v>
+        <v>96.88303733070425</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,13 +25289,13 @@
         <v>227.7459611595986</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6112084361161</v>
+        <v>178.7718991520622</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>172.8609112330722</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X36" t="n">
         <v>119.644718181104</v>
@@ -25368,7 +25368,7 @@
         <v>215.9987707883102</v>
       </c>
       <c r="U37" t="n">
-        <v>232.3332547640579</v>
+        <v>291.1929263587522</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25380,7 +25380,7 @@
         <v>217.7416213385031</v>
       </c>
       <c r="Y37" t="n">
-        <v>215.5502738121359</v>
+        <v>156.6906022174417</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>249.5702094064284</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>288.7580720435101</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>310.7028640872771</v>
+        <v>421.0912096171361</v>
       </c>
       <c r="H38" t="n">
-        <v>338.5034223707061</v>
+        <v>228.1150768408472</v>
       </c>
       <c r="I38" t="n">
-        <v>211.2869925855227</v>
+        <v>100.8986470556638</v>
       </c>
       <c r="J38" t="n">
         <v>8.713999329422251</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>0.05499638472400648</v>
       </c>
       <c r="R38" t="n">
         <v>141.2290200343808</v>
       </c>
       <c r="S38" t="n">
-        <v>113.2684567153252</v>
+        <v>113.2134603306012</v>
       </c>
       <c r="T38" t="n">
-        <v>214.5749735244659</v>
+        <v>104.1866279946069</v>
       </c>
       <c r="U38" t="n">
         <v>248.7016845801699</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>187.665739969039</v>
       </c>
       <c r="C39" t="n">
-        <v>93.45408208538043</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>90.2304905549031</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
         <v>173.9843481253239</v>
@@ -25487,10 +25487,10 @@
         <v>160.4321066143396</v>
       </c>
       <c r="H39" t="n">
-        <v>21.73281245080091</v>
+        <v>132.1211579806599</v>
       </c>
       <c r="I39" t="n">
-        <v>96.88303733070425</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>26.39074545864588</v>
@@ -25520,13 +25520,13 @@
         <v>118.2038168143979</v>
       </c>
       <c r="S39" t="n">
-        <v>197.1961324302366</v>
+        <v>86.80778690037761</v>
       </c>
       <c r="T39" t="n">
-        <v>227.7459611595986</v>
+        <v>117.3576156297397</v>
       </c>
       <c r="U39" t="n">
-        <v>139.2228629062571</v>
+        <v>249.6112084361161</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25538,7 +25538,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>132.5079208837344</v>
       </c>
     </row>
     <row r="40">
@@ -25557,7 +25557,7 @@
         <v>141.3987433365328</v>
       </c>
       <c r="E40" t="n">
-        <v>77.57205280921947</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F40" t="n">
         <v>131.7685403657761</v>
@@ -25596,7 +25596,7 @@
         <v>110.7208828302527</v>
       </c>
       <c r="R40" t="n">
-        <v>199.081979577582</v>
+        <v>140.2223079828877</v>
       </c>
       <c r="S40" t="n">
         <v>235.1761702616857</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.5563275970632</v>
+        <v>262.6330603752604</v>
       </c>
       <c r="C41" t="n">
-        <v>243.8781020899686</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1317556432476</v>
+        <v>217.2084884214448</v>
       </c>
       <c r="E41" t="n">
         <v>359.9585549362873</v>
@@ -25651,7 +25651,7 @@
         <v>211.2869925855227</v>
       </c>
       <c r="J41" t="n">
-        <v>8.713999329422251</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.05499638472400648</v>
       </c>
       <c r="R41" t="n">
         <v>141.2290200343808</v>
       </c>
       <c r="S41" t="n">
-        <v>108.5202478514981</v>
+        <v>210.4435150733009</v>
       </c>
       <c r="T41" t="n">
         <v>214.5749735244659</v>
@@ -25690,13 +25690,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>223.4684582574906</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
-        <v>246.8936120817101</v>
+        <v>267.7568648639713</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>276.0057091733793</v>
       </c>
     </row>
     <row r="42">
@@ -25709,13 +25709,13 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>101.9191603934366</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
-        <v>70.17567515770941</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
-        <v>85.53727807580003</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
         <v>173.9843481253239</v>
@@ -25763,19 +25763,19 @@
         <v>227.7459611595986</v>
       </c>
       <c r="U42" t="n">
-        <v>159.8371946671522</v>
+        <v>147.6879412143133</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>147.3766579583696</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>193.4752429939672</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>242.8962664135933</v>
+        <v>140.9729991917905</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>168.7457315505393</v>
+        <v>109.886059955845</v>
       </c>
       <c r="H43" t="n">
         <v>163.2330828547056</v>
@@ -25839,7 +25839,7 @@
         <v>235.1761702616857</v>
       </c>
       <c r="T43" t="n">
-        <v>157.1390991936159</v>
+        <v>215.9987707883102</v>
       </c>
       <c r="U43" t="n">
         <v>291.1929263587522</v>
@@ -25873,19 +25873,19 @@
         <v>217.2084884214448</v>
       </c>
       <c r="E44" t="n">
-        <v>359.9585549362873</v>
+        <v>258.0352877144845</v>
       </c>
       <c r="F44" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>319.1679423953333</v>
+        <v>421.0912096171361</v>
       </c>
       <c r="H44" t="n">
-        <v>248.7294086017423</v>
+        <v>236.5801551489033</v>
       </c>
       <c r="I44" t="n">
-        <v>109.3637253637199</v>
+        <v>121.5679752012829</v>
       </c>
       <c r="J44" t="n">
         <v>8.713999329422251</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.05499638472400648</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>141.2290200343808</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>86.08949015923164</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C45" t="n">
-        <v>203.8424276152394</v>
+        <v>101.9191603934366</v>
       </c>
       <c r="D45" t="n">
-        <v>82.32492861054835</v>
+        <v>70.17567515770941</v>
       </c>
       <c r="E45" t="n">
         <v>187.4605452976028</v>
@@ -25961,7 +25961,7 @@
         <v>160.4321066143396</v>
       </c>
       <c r="H45" t="n">
-        <v>30.19789075885706</v>
+        <v>132.1211579806599</v>
       </c>
       <c r="I45" t="n">
         <v>96.88303733070425</v>
@@ -25994,16 +25994,16 @@
         <v>118.2038168143979</v>
       </c>
       <c r="S45" t="n">
-        <v>197.1961324302366</v>
+        <v>95.27286520843376</v>
       </c>
       <c r="T45" t="n">
-        <v>227.7459611595986</v>
+        <v>137.9719473906347</v>
       </c>
       <c r="U45" t="n">
         <v>249.6112084361161</v>
       </c>
       <c r="V45" t="n">
-        <v>147.3766579583696</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
         <v>283.2492567629311</v>
@@ -26040,7 +26040,7 @@
         <v>168.7457315505393</v>
       </c>
       <c r="H46" t="n">
-        <v>104.3734112600114</v>
+        <v>163.2330828547056</v>
       </c>
       <c r="I46" t="n">
         <v>153.0404982131692</v>
@@ -26076,7 +26076,7 @@
         <v>235.1761702616857</v>
       </c>
       <c r="T46" t="n">
-        <v>215.9987707883102</v>
+        <v>157.1390991936159</v>
       </c>
       <c r="U46" t="n">
         <v>291.1929263587522</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>402856.7156505284</v>
+        <v>402856.7156505283</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>419186.629415581</v>
+        <v>419186.6294155809</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>402856.7156505283</v>
+        <v>402856.7156505284</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>402856.7156505283</v>
+        <v>402856.7156505285</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>736968.9452884144</v>
+        <v>736968.9452884143</v>
       </c>
       <c r="C2" t="n">
-        <v>736968.9452884141</v>
+        <v>736968.945288414</v>
       </c>
       <c r="D2" t="n">
-        <v>736968.945288414</v>
+        <v>736968.9452884139</v>
       </c>
       <c r="E2" t="n">
         <v>305734.9693011942</v>
@@ -26328,25 +26328,25 @@
         <v>305734.9693011942</v>
       </c>
       <c r="G2" t="n">
-        <v>308841.057437341</v>
+        <v>308841.0574373412</v>
       </c>
       <c r="H2" t="n">
         <v>308841.0574373411</v>
       </c>
       <c r="I2" t="n">
-        <v>318161.9129656065</v>
+        <v>318161.9129656064</v>
       </c>
       <c r="J2" t="n">
-        <v>318161.9129656065</v>
+        <v>318161.9129656064</v>
       </c>
       <c r="K2" t="n">
         <v>318161.9129656065</v>
       </c>
       <c r="L2" t="n">
-        <v>318161.9129656064</v>
+        <v>318161.9129656065</v>
       </c>
       <c r="M2" t="n">
-        <v>308841.0574373412</v>
+        <v>308841.0574373411</v>
       </c>
       <c r="N2" t="n">
         <v>308841.0574373412</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>529850.8289990246</v>
+        <v>529850.8289990245</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6755.004100873099</v>
+        <v>6755.004100873083</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>19069.33197529536</v>
+        <v>19069.33197529556</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>542758.2060475298</v>
       </c>
       <c r="E4" t="n">
-        <v>13244.07086037729</v>
+        <v>13244.07086037728</v>
       </c>
       <c r="F4" t="n">
-        <v>13244.07086037729</v>
+        <v>13244.07086037728</v>
       </c>
       <c r="G4" t="n">
-        <v>14396.890200441</v>
+        <v>14396.89020044101</v>
       </c>
       <c r="H4" t="n">
-        <v>14396.890200441</v>
+        <v>14396.89020044101</v>
       </c>
       <c r="I4" t="n">
-        <v>19018.9730234511</v>
+        <v>19018.97302345111</v>
       </c>
       <c r="J4" t="n">
-        <v>19018.9730234511</v>
+        <v>19018.97302345109</v>
       </c>
       <c r="K4" t="n">
-        <v>19018.9730234511</v>
+        <v>19018.97302345109</v>
       </c>
       <c r="L4" t="n">
-        <v>19018.9730234511</v>
+        <v>19018.97302345109</v>
       </c>
       <c r="M4" t="n">
         <v>14396.890200441</v>
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>19748.45173759027</v>
+        <v>19748.45173759025</v>
       </c>
       <c r="F5" t="n">
-        <v>19748.45173759027</v>
+        <v>19748.45173759025</v>
       </c>
       <c r="G5" t="n">
         <v>20263.12849872008</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160583.1392408846</v>
+        <v>160536.1946999517</v>
       </c>
       <c r="C6" t="n">
-        <v>160583.1392408843</v>
+        <v>160536.1946999514</v>
       </c>
       <c r="D6" t="n">
-        <v>160583.1392408842</v>
+        <v>160536.1946999513</v>
       </c>
       <c r="E6" t="n">
-        <v>-257108.3822957979</v>
+        <v>-271066.1002556731</v>
       </c>
       <c r="F6" t="n">
-        <v>272742.4467032267</v>
+        <v>258784.7287433513</v>
       </c>
       <c r="G6" t="n">
-        <v>271860.8877501164</v>
+        <v>258003.3661817298</v>
       </c>
       <c r="H6" t="n">
-        <v>274181.0387381801</v>
+        <v>260323.5171697933</v>
       </c>
       <c r="I6" t="n">
-        <v>270580.3477123221</v>
+        <v>257023.4989029116</v>
       </c>
       <c r="J6" t="n">
-        <v>277335.3518131952</v>
+        <v>263778.5030037846</v>
       </c>
       <c r="K6" t="n">
-        <v>277335.3518131952</v>
+        <v>263778.5030037847</v>
       </c>
       <c r="L6" t="n">
-        <v>277335.3518131952</v>
+        <v>263778.5030037847</v>
       </c>
       <c r="M6" t="n">
-        <v>255111.7067628847</v>
+        <v>241254.1851944977</v>
       </c>
       <c r="N6" t="n">
-        <v>274181.0387381801</v>
+        <v>260323.5171697934</v>
       </c>
       <c r="O6" t="n">
-        <v>272742.4467032267</v>
+        <v>258784.7287433514</v>
       </c>
       <c r="P6" t="n">
-        <v>272742.4467032267</v>
+        <v>258784.7287433514</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>621.6292243350761</v>
+        <v>621.6292243350759</v>
       </c>
       <c r="F3" t="n">
-        <v>621.6292243350761</v>
+        <v>621.6292243350759</v>
       </c>
       <c r="G3" t="n">
-        <v>621.6292243350761</v>
+        <v>621.6292243350759</v>
       </c>
       <c r="H3" t="n">
-        <v>621.6292243350761</v>
+        <v>621.6292243350759</v>
       </c>
       <c r="I3" t="n">
-        <v>621.6292243350761</v>
+        <v>621.6292243350759</v>
       </c>
       <c r="J3" t="n">
         <v>621.6292243350761</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="F4" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="G4" t="n">
-        <v>110.388345529859</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="H4" t="n">
-        <v>110.388345529859</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="I4" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="J4" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="K4" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="L4" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="M4" t="n">
         <v>110.388345529859</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>621.6292243350761</v>
+        <v>621.6292243350759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.40229655000206</v>
+        <v>25.40229655000201</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>76.52097067180046</v>
+        <v>76.52097067180128</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,13 +31755,13 @@
         <v>2.499011957125932</v>
       </c>
       <c r="H11" t="n">
-        <v>25.59300620591596</v>
+        <v>25.59300620591595</v>
       </c>
       <c r="I11" t="n">
-        <v>96.34315847709759</v>
+        <v>96.34315847709757</v>
       </c>
       <c r="J11" t="n">
-        <v>212.1005160961173</v>
+        <v>212.1005160961172</v>
       </c>
       <c r="K11" t="n">
         <v>317.883692241258</v>
@@ -31770,25 +31770,25 @@
         <v>394.3628294241508</v>
       </c>
       <c r="M11" t="n">
-        <v>438.8046333166891</v>
+        <v>438.804633316689</v>
       </c>
       <c r="N11" t="n">
-        <v>437.439872731817</v>
+        <v>437.4398727318169</v>
       </c>
       <c r="O11" t="n">
-        <v>421.0554008912022</v>
+        <v>421.0554008912021</v>
       </c>
       <c r="P11" t="n">
-        <v>359.3610431996557</v>
+        <v>359.3610431996556</v>
       </c>
       <c r="Q11" t="n">
-        <v>269.8651774850832</v>
+        <v>269.8651774850831</v>
       </c>
       <c r="R11" t="n">
         <v>156.978559851812</v>
       </c>
       <c r="S11" t="n">
-        <v>56.94623497300724</v>
+        <v>56.94623497300722</v>
       </c>
       <c r="T11" t="n">
         <v>10.93942484231877</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.337089274984881</v>
+        <v>1.33708927498488</v>
       </c>
       <c r="H12" t="n">
         <v>12.91346747156451</v>
       </c>
       <c r="I12" t="n">
-        <v>46.03574916066366</v>
+        <v>46.03574916066365</v>
       </c>
       <c r="J12" t="n">
         <v>126.3256143528479</v>
@@ -31846,34 +31846,34 @@
         <v>201.5931045</v>
       </c>
       <c r="L12" t="n">
-        <v>290.3184410444146</v>
+        <v>290.3184410444145</v>
       </c>
       <c r="M12" t="n">
-        <v>260.5289502190599</v>
+        <v>309.7942918327544</v>
       </c>
       <c r="N12" t="n">
-        <v>294.0105211436778</v>
+        <v>294.0105211436776</v>
       </c>
       <c r="O12" t="n">
-        <v>310.4702747218028</v>
+        <v>310.4702747218026</v>
       </c>
       <c r="P12" t="n">
-        <v>255.3254072556655</v>
+        <v>206.0600656419706</v>
       </c>
       <c r="Q12" t="n">
         <v>170.6782730664911</v>
       </c>
       <c r="R12" t="n">
-        <v>83.01682358195605</v>
+        <v>83.01682358195603</v>
       </c>
       <c r="S12" t="n">
         <v>24.83584684017967</v>
       </c>
       <c r="T12" t="n">
-        <v>5.389408086452214</v>
+        <v>5.389408086452213</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08796639967005797</v>
+        <v>0.08796639967005795</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,13 +31913,13 @@
         <v>1.120970732407514</v>
       </c>
       <c r="H13" t="n">
-        <v>9.966448875404996</v>
+        <v>9.966448875404994</v>
       </c>
       <c r="I13" t="n">
         <v>33.71064711640052</v>
       </c>
       <c r="J13" t="n">
-        <v>79.25263078121124</v>
+        <v>79.25263078121122</v>
       </c>
       <c r="K13" t="n">
         <v>130.2364178197093</v>
@@ -31940,19 +31940,19 @@
         <v>135.5763147631778</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.86601287459648</v>
+        <v>93.86601287459646</v>
       </c>
       <c r="R13" t="n">
-        <v>50.40292038625058</v>
+        <v>50.40292038625056</v>
       </c>
       <c r="S13" t="n">
         <v>19.5354626729564</v>
       </c>
       <c r="T13" t="n">
-        <v>4.78960222028665</v>
+        <v>4.789602220286649</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06114385813131902</v>
+        <v>0.06114385813131901</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,13 +31992,13 @@
         <v>2.499011957125932</v>
       </c>
       <c r="H14" t="n">
-        <v>25.59300620591596</v>
+        <v>25.59300620591595</v>
       </c>
       <c r="I14" t="n">
-        <v>96.34315847709759</v>
+        <v>96.34315847709757</v>
       </c>
       <c r="J14" t="n">
-        <v>212.1005160961173</v>
+        <v>212.1005160961172</v>
       </c>
       <c r="K14" t="n">
         <v>317.883692241258</v>
@@ -32007,25 +32007,25 @@
         <v>394.3628294241508</v>
       </c>
       <c r="M14" t="n">
-        <v>438.8046333166891</v>
+        <v>438.804633316689</v>
       </c>
       <c r="N14" t="n">
-        <v>437.439872731817</v>
+        <v>437.4398727318169</v>
       </c>
       <c r="O14" t="n">
-        <v>421.0554008912022</v>
+        <v>421.0554008912021</v>
       </c>
       <c r="P14" t="n">
-        <v>359.3610431996557</v>
+        <v>359.3610431996556</v>
       </c>
       <c r="Q14" t="n">
-        <v>269.8651774850832</v>
+        <v>269.8651774850831</v>
       </c>
       <c r="R14" t="n">
         <v>156.978559851812</v>
       </c>
       <c r="S14" t="n">
-        <v>56.94623497300724</v>
+        <v>56.94623497300722</v>
       </c>
       <c r="T14" t="n">
         <v>10.93942484231877</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.337089274984881</v>
+        <v>1.33708927498488</v>
       </c>
       <c r="H15" t="n">
         <v>12.91346747156451</v>
       </c>
       <c r="I15" t="n">
-        <v>46.03574916066366</v>
+        <v>46.03574916066365</v>
       </c>
       <c r="J15" t="n">
         <v>126.3256143528479</v>
       </c>
       <c r="K15" t="n">
-        <v>201.5931045</v>
+        <v>215.9105957768348</v>
       </c>
       <c r="L15" t="n">
-        <v>241.0530994307198</v>
+        <v>290.3184410444145</v>
       </c>
       <c r="M15" t="n">
-        <v>309.7942918327547</v>
+        <v>309.7942918327544</v>
       </c>
       <c r="N15" t="n">
-        <v>294.0105211436778</v>
+        <v>294.0105211436776</v>
       </c>
       <c r="O15" t="n">
-        <v>310.4702747218028</v>
+        <v>246.8874418312728</v>
       </c>
       <c r="P15" t="n">
         <v>255.3254072556655</v>
@@ -32101,16 +32101,16 @@
         <v>170.6782730664911</v>
       </c>
       <c r="R15" t="n">
-        <v>83.01682358195605</v>
+        <v>83.01682358195603</v>
       </c>
       <c r="S15" t="n">
         <v>24.83584684017967</v>
       </c>
       <c r="T15" t="n">
-        <v>5.389408086452214</v>
+        <v>5.389408086452213</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08796639967005797</v>
+        <v>0.08796639967005795</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,13 +32150,13 @@
         <v>1.120970732407514</v>
       </c>
       <c r="H16" t="n">
-        <v>9.966448875404996</v>
+        <v>9.966448875404994</v>
       </c>
       <c r="I16" t="n">
         <v>33.71064711640052</v>
       </c>
       <c r="J16" t="n">
-        <v>79.25263078121124</v>
+        <v>79.25263078121122</v>
       </c>
       <c r="K16" t="n">
         <v>130.2364178197093</v>
@@ -32177,19 +32177,19 @@
         <v>135.5763147631778</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.86601287459648</v>
+        <v>93.86601287459646</v>
       </c>
       <c r="R16" t="n">
-        <v>50.40292038625058</v>
+        <v>50.40292038625056</v>
       </c>
       <c r="S16" t="n">
         <v>19.5354626729564</v>
       </c>
       <c r="T16" t="n">
-        <v>4.78960222028665</v>
+        <v>4.789602220286649</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06114385813131902</v>
+        <v>0.06114385813131901</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,13 +32229,13 @@
         <v>2.499011957125932</v>
       </c>
       <c r="H17" t="n">
-        <v>25.59300620591596</v>
+        <v>25.59300620591595</v>
       </c>
       <c r="I17" t="n">
-        <v>96.34315847709759</v>
+        <v>96.34315847709757</v>
       </c>
       <c r="J17" t="n">
-        <v>212.1005160961173</v>
+        <v>212.1005160961172</v>
       </c>
       <c r="K17" t="n">
         <v>317.883692241258</v>
@@ -32244,25 +32244,25 @@
         <v>394.3628294241508</v>
       </c>
       <c r="M17" t="n">
-        <v>438.8046333166891</v>
+        <v>438.804633316689</v>
       </c>
       <c r="N17" t="n">
-        <v>445.9049510398732</v>
+        <v>445.9049510398731</v>
       </c>
       <c r="O17" t="n">
-        <v>421.0554008912022</v>
+        <v>421.0554008912021</v>
       </c>
       <c r="P17" t="n">
-        <v>359.3610431996557</v>
+        <v>359.3610431996556</v>
       </c>
       <c r="Q17" t="n">
-        <v>269.8651774850832</v>
+        <v>269.8651774850831</v>
       </c>
       <c r="R17" t="n">
         <v>156.978559851812</v>
       </c>
       <c r="S17" t="n">
-        <v>56.94623497300724</v>
+        <v>56.94623497300722</v>
       </c>
       <c r="T17" t="n">
         <v>10.93942484231877</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.337089274984881</v>
+        <v>1.33708927498488</v>
       </c>
       <c r="H18" t="n">
         <v>12.91346747156451</v>
       </c>
       <c r="I18" t="n">
-        <v>46.03574916066366</v>
+        <v>46.03574916066365</v>
       </c>
       <c r="J18" t="n">
         <v>126.3256143528479</v>
       </c>
       <c r="K18" t="n">
-        <v>201.5931045</v>
+        <v>215.9105957768348</v>
       </c>
       <c r="L18" t="n">
-        <v>290.3184410444146</v>
+        <v>290.3184410444145</v>
       </c>
       <c r="M18" t="n">
-        <v>318.2593701408108</v>
+        <v>263.607393028772</v>
       </c>
       <c r="N18" t="n">
-        <v>302.475599451734</v>
+        <v>302.4755994517338</v>
       </c>
       <c r="O18" t="n">
-        <v>277.7930663582382</v>
+        <v>318.1275521934421</v>
       </c>
       <c r="P18" t="n">
         <v>255.3254072556655</v>
@@ -32338,16 +32338,16 @@
         <v>170.6782730664911</v>
       </c>
       <c r="R18" t="n">
-        <v>83.01682358195605</v>
+        <v>83.01682358195603</v>
       </c>
       <c r="S18" t="n">
         <v>24.83584684017967</v>
       </c>
       <c r="T18" t="n">
-        <v>5.389408086452214</v>
+        <v>5.389408086452213</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08796639967005797</v>
+        <v>0.08796639967005795</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,13 +32387,13 @@
         <v>1.120970732407514</v>
       </c>
       <c r="H19" t="n">
-        <v>9.966448875404996</v>
+        <v>9.966448875404994</v>
       </c>
       <c r="I19" t="n">
         <v>33.71064711640052</v>
       </c>
       <c r="J19" t="n">
-        <v>79.25263078121124</v>
+        <v>79.25263078121122</v>
       </c>
       <c r="K19" t="n">
         <v>130.2364178197093</v>
@@ -32414,19 +32414,19 @@
         <v>135.5763147631778</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.86601287459648</v>
+        <v>93.86601287459646</v>
       </c>
       <c r="R19" t="n">
-        <v>50.40292038625058</v>
+        <v>50.40292038625056</v>
       </c>
       <c r="S19" t="n">
         <v>19.5354626729564</v>
       </c>
       <c r="T19" t="n">
-        <v>4.78960222028665</v>
+        <v>4.789602220286649</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06114385813131902</v>
+        <v>0.06114385813131901</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>2.499011957125932</v>
       </c>
       <c r="H20" t="n">
-        <v>25.59300620591596</v>
+        <v>25.59300620591595</v>
       </c>
       <c r="I20" t="n">
-        <v>96.34315847709759</v>
+        <v>96.34315847709757</v>
       </c>
       <c r="J20" t="n">
-        <v>212.1005160961173</v>
+        <v>212.1005160961172</v>
       </c>
       <c r="K20" t="n">
         <v>317.883692241258</v>
@@ -32481,25 +32481,25 @@
         <v>394.3628294241508</v>
       </c>
       <c r="M20" t="n">
-        <v>438.8046333166891</v>
+        <v>438.804633316689</v>
       </c>
       <c r="N20" t="n">
-        <v>445.9049510398732</v>
+        <v>445.9049510398731</v>
       </c>
       <c r="O20" t="n">
-        <v>421.0554008912022</v>
+        <v>421.0554008912021</v>
       </c>
       <c r="P20" t="n">
-        <v>359.3610431996557</v>
+        <v>359.3610431996556</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.8651774850832</v>
+        <v>269.8651774850831</v>
       </c>
       <c r="R20" t="n">
         <v>156.978559851812</v>
       </c>
       <c r="S20" t="n">
-        <v>56.94623497300724</v>
+        <v>56.94623497300722</v>
       </c>
       <c r="T20" t="n">
         <v>10.93942484231877</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.337089274984881</v>
+        <v>1.33708927498488</v>
       </c>
       <c r="H21" t="n">
         <v>12.91346747156451</v>
       </c>
       <c r="I21" t="n">
-        <v>46.03574916066366</v>
+        <v>46.03574916066365</v>
       </c>
       <c r="J21" t="n">
         <v>126.3256143528479</v>
       </c>
       <c r="K21" t="n">
-        <v>215.9105957768349</v>
+        <v>215.9105957768348</v>
       </c>
       <c r="L21" t="n">
-        <v>290.3184410444146</v>
+        <v>290.3184410444145</v>
       </c>
       <c r="M21" t="n">
-        <v>318.2593701408108</v>
+        <v>318.2593701408107</v>
       </c>
       <c r="N21" t="n">
-        <v>302.475599451734</v>
+        <v>302.4755994517338</v>
       </c>
       <c r="O21" t="n">
-        <v>318.1275521934422</v>
+        <v>318.1275521934421</v>
       </c>
       <c r="P21" t="n">
         <v>200.6734301436267</v>
@@ -32575,16 +32575,16 @@
         <v>170.6782730664911</v>
       </c>
       <c r="R21" t="n">
-        <v>83.01682358195605</v>
+        <v>83.01682358195603</v>
       </c>
       <c r="S21" t="n">
         <v>24.83584684017967</v>
       </c>
       <c r="T21" t="n">
-        <v>5.389408086452214</v>
+        <v>5.389408086452213</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08796639967005797</v>
+        <v>0.08796639967005795</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,13 +32624,13 @@
         <v>1.120970732407514</v>
       </c>
       <c r="H22" t="n">
-        <v>9.966448875404996</v>
+        <v>9.966448875404994</v>
       </c>
       <c r="I22" t="n">
         <v>33.71064711640052</v>
       </c>
       <c r="J22" t="n">
-        <v>79.25263078121124</v>
+        <v>79.25263078121122</v>
       </c>
       <c r="K22" t="n">
         <v>130.2364178197093</v>
@@ -32651,19 +32651,19 @@
         <v>135.5763147631778</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.86601287459648</v>
+        <v>93.86601287459646</v>
       </c>
       <c r="R22" t="n">
-        <v>50.40292038625058</v>
+        <v>50.40292038625056</v>
       </c>
       <c r="S22" t="n">
         <v>19.5354626729564</v>
       </c>
       <c r="T22" t="n">
-        <v>4.78960222028665</v>
+        <v>4.789602220286649</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06114385813131902</v>
+        <v>0.06114385813131901</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,13 +32703,13 @@
         <v>2.499011957125932</v>
       </c>
       <c r="H23" t="n">
-        <v>25.59300620591596</v>
+        <v>25.59300620591595</v>
       </c>
       <c r="I23" t="n">
-        <v>96.34315847709759</v>
+        <v>96.34315847709757</v>
       </c>
       <c r="J23" t="n">
-        <v>212.1005160961173</v>
+        <v>212.1005160961172</v>
       </c>
       <c r="K23" t="n">
         <v>317.883692241258</v>
@@ -32718,25 +32718,25 @@
         <v>394.3628294241508</v>
       </c>
       <c r="M23" t="n">
-        <v>438.8046333166891</v>
+        <v>438.804633316689</v>
       </c>
       <c r="N23" t="n">
-        <v>445.9049510398732</v>
+        <v>445.9049510398731</v>
       </c>
       <c r="O23" t="n">
-        <v>421.0554008912022</v>
+        <v>421.0554008912021</v>
       </c>
       <c r="P23" t="n">
-        <v>359.3610431996557</v>
+        <v>359.3610431996556</v>
       </c>
       <c r="Q23" t="n">
-        <v>269.8651774850832</v>
+        <v>269.8651774850831</v>
       </c>
       <c r="R23" t="n">
         <v>156.978559851812</v>
       </c>
       <c r="S23" t="n">
-        <v>56.94623497300724</v>
+        <v>56.94623497300722</v>
       </c>
       <c r="T23" t="n">
         <v>10.93942484231877</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.337089274984881</v>
+        <v>1.33708927498488</v>
       </c>
       <c r="H24" t="n">
         <v>12.91346747156451</v>
       </c>
       <c r="I24" t="n">
-        <v>46.03574916066366</v>
+        <v>46.03574916066365</v>
       </c>
       <c r="J24" t="n">
         <v>126.3256143528479</v>
       </c>
       <c r="K24" t="n">
-        <v>215.9105957768349</v>
+        <v>215.9105957768348</v>
       </c>
       <c r="L24" t="n">
-        <v>290.3184410444146</v>
+        <v>290.3184410444145</v>
       </c>
       <c r="M24" t="n">
-        <v>338.7879272626164</v>
+        <v>338.7879272626163</v>
       </c>
       <c r="N24" t="n">
-        <v>327.877896001736</v>
+        <v>327.8778960017359</v>
       </c>
       <c r="O24" t="n">
-        <v>318.1275521934422</v>
+        <v>318.1275521934421</v>
       </c>
       <c r="P24" t="n">
         <v>255.3254072556655</v>
@@ -32812,16 +32812,16 @@
         <v>170.6782730664911</v>
       </c>
       <c r="R24" t="n">
-        <v>83.01682358195605</v>
+        <v>83.01682358195603</v>
       </c>
       <c r="S24" t="n">
         <v>24.83584684017967</v>
       </c>
       <c r="T24" t="n">
-        <v>5.389408086452214</v>
+        <v>5.389408086452213</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08796639967005797</v>
+        <v>0.08796639967005795</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,13 +32861,13 @@
         <v>1.120970732407514</v>
       </c>
       <c r="H25" t="n">
-        <v>9.966448875404996</v>
+        <v>9.966448875404994</v>
       </c>
       <c r="I25" t="n">
         <v>33.71064711640052</v>
       </c>
       <c r="J25" t="n">
-        <v>79.25263078121124</v>
+        <v>79.25263078121122</v>
       </c>
       <c r="K25" t="n">
         <v>130.2364178197093</v>
@@ -32888,19 +32888,19 @@
         <v>135.5763147631778</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.86601287459648</v>
+        <v>93.86601287459646</v>
       </c>
       <c r="R25" t="n">
-        <v>50.40292038625058</v>
+        <v>50.40292038625056</v>
       </c>
       <c r="S25" t="n">
         <v>19.5354626729564</v>
       </c>
       <c r="T25" t="n">
-        <v>4.78960222028665</v>
+        <v>4.789602220286649</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06114385813131902</v>
+        <v>0.06114385813131901</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33034,10 +33034,10 @@
         <v>290.3184410444146</v>
       </c>
       <c r="M27" t="n">
-        <v>338.7879272626164</v>
+        <v>338.7879272626162</v>
       </c>
       <c r="N27" t="n">
-        <v>327.877896001736</v>
+        <v>327.8778960017359</v>
       </c>
       <c r="O27" t="n">
         <v>318.1275521934422</v>
@@ -33274,7 +33274,7 @@
         <v>338.7879272626164</v>
       </c>
       <c r="N30" t="n">
-        <v>327.877896001736</v>
+        <v>327.8778960017359</v>
       </c>
       <c r="O30" t="n">
         <v>318.1275521934422</v>
@@ -33511,7 +33511,7 @@
         <v>338.7879272626164</v>
       </c>
       <c r="N33" t="n">
-        <v>327.877896001736</v>
+        <v>327.8778960017359</v>
       </c>
       <c r="O33" t="n">
         <v>318.1275521934422</v>
@@ -33739,7 +33739,7 @@
         <v>126.3256143528479</v>
       </c>
       <c r="K36" t="n">
-        <v>201.5931045</v>
+        <v>215.9105957768349</v>
       </c>
       <c r="L36" t="n">
         <v>290.3184410444146</v>
@@ -33751,10 +33751,10 @@
         <v>302.475599451734</v>
       </c>
       <c r="O36" t="n">
-        <v>277.7930663582382</v>
+        <v>318.1275521934422</v>
       </c>
       <c r="P36" t="n">
-        <v>255.3254072556655</v>
+        <v>200.6734301436267</v>
       </c>
       <c r="Q36" t="n">
         <v>170.6782730664911</v>
@@ -33982,10 +33982,10 @@
         <v>290.3184410444146</v>
       </c>
       <c r="M39" t="n">
-        <v>263.607393028772</v>
+        <v>318.2593701408108</v>
       </c>
       <c r="N39" t="n">
-        <v>302.475599451734</v>
+        <v>247.8236223396951</v>
       </c>
       <c r="O39" t="n">
         <v>318.1275521934422</v>
@@ -34213,7 +34213,7 @@
         <v>126.3256143528479</v>
       </c>
       <c r="K42" t="n">
-        <v>201.5931045</v>
+        <v>215.9105957768349</v>
       </c>
       <c r="L42" t="n">
         <v>290.3184410444146</v>
@@ -34225,7 +34225,7 @@
         <v>294.0105211436778</v>
       </c>
       <c r="O42" t="n">
-        <v>261.204933108108</v>
+        <v>246.8874418312731</v>
       </c>
       <c r="P42" t="n">
         <v>255.3254072556655</v>
@@ -34450,10 +34450,10 @@
         <v>126.3256143528479</v>
       </c>
       <c r="K45" t="n">
-        <v>201.5931045</v>
+        <v>215.9105957768349</v>
       </c>
       <c r="L45" t="n">
-        <v>241.0530994307198</v>
+        <v>290.3184410444146</v>
       </c>
       <c r="M45" t="n">
         <v>309.7942918327547</v>
@@ -34462,7 +34462,7 @@
         <v>294.0105211436778</v>
       </c>
       <c r="O45" t="n">
-        <v>310.4702747218028</v>
+        <v>246.8874418312731</v>
       </c>
       <c r="P45" t="n">
         <v>255.3254072556655</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.55444753054451</v>
+        <v>49.55444753054445</v>
       </c>
       <c r="M11" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N11" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="O11" t="n">
-        <v>84.53676668698535</v>
+        <v>84.53676668698523</v>
       </c>
       <c r="P11" t="n">
-        <v>65.63720841913421</v>
+        <v>65.63720841913393</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>87.68266061634856</v>
+        <v>87.6826606163485</v>
       </c>
       <c r="M12" t="n">
-        <v>52.65792560810806</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="N12" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="O12" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="P12" t="n">
-        <v>59.38783641220752</v>
+        <v>10.12249479851259</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,13 +35573,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>11.63235931942489</v>
+        <v>11.63235931942484</v>
       </c>
       <c r="M13" t="n">
-        <v>18.95081043947224</v>
+        <v>18.95081043947221</v>
       </c>
       <c r="N13" t="n">
-        <v>29.47159158657198</v>
+        <v>29.47159158657195</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.45442151156025</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.55444753054451</v>
+        <v>94.00886904210444</v>
       </c>
       <c r="M14" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N14" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="O14" t="n">
-        <v>84.53676668698535</v>
+        <v>84.53676668698523</v>
       </c>
       <c r="P14" t="n">
-        <v>21.18278690757398</v>
+        <v>21.18278690757393</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>14.31749127683483</v>
       </c>
       <c r="L15" t="n">
-        <v>38.41731900265381</v>
+        <v>87.6826606163485</v>
       </c>
       <c r="M15" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="N15" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218026</v>
       </c>
       <c r="O15" t="n">
-        <v>101.9232672218028</v>
+        <v>38.34043433127287</v>
       </c>
       <c r="P15" t="n">
-        <v>59.38783641220752</v>
+        <v>59.38783641220746</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35810,13 +35810,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>11.63235931942489</v>
+        <v>11.63235931942484</v>
       </c>
       <c r="M16" t="n">
-        <v>18.95081043947224</v>
+        <v>18.95081043947221</v>
       </c>
       <c r="N16" t="n">
-        <v>29.47159158657198</v>
+        <v>29.47159158657195</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>69.5076330697466</v>
+        <v>69.50763306974679</v>
       </c>
       <c r="L17" t="n">
-        <v>49.55444753054451</v>
+        <v>49.55444753054445</v>
       </c>
       <c r="M17" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N17" t="n">
-        <v>110.388345529859</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="O17" t="n">
-        <v>84.53676668698535</v>
+        <v>84.53676668698523</v>
       </c>
       <c r="P17" t="n">
-        <v>21.18278690757398</v>
+        <v>21.18278690757393</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>14.31749127683483</v>
       </c>
       <c r="L18" t="n">
-        <v>87.68266061634856</v>
+        <v>87.6826606163485</v>
       </c>
       <c r="M18" t="n">
-        <v>110.388345529859</v>
+        <v>55.73636841782013</v>
       </c>
       <c r="N18" t="n">
-        <v>110.388345529859</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="O18" t="n">
-        <v>69.24605885823826</v>
+        <v>109.5805446934421</v>
       </c>
       <c r="P18" t="n">
-        <v>59.38783641220752</v>
+        <v>59.38783641220746</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36047,13 +36047,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>11.63235931942489</v>
+        <v>11.63235931942484</v>
       </c>
       <c r="M19" t="n">
-        <v>18.95081043947224</v>
+        <v>18.95081043947221</v>
       </c>
       <c r="N19" t="n">
-        <v>29.47159158657198</v>
+        <v>29.47159158657195</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>69.5076330697466</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.55444753054451</v>
+        <v>49.55444753054445</v>
       </c>
       <c r="M20" t="n">
-        <v>101.9232672218028</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N20" t="n">
-        <v>110.388345529859</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="O20" t="n">
-        <v>84.53676668698535</v>
+        <v>84.53676668698523</v>
       </c>
       <c r="P20" t="n">
-        <v>21.18278690757398</v>
+        <v>90.69041997732072</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>14.31749127683486</v>
+        <v>14.31749127683483</v>
       </c>
       <c r="L21" t="n">
-        <v>87.68266061634856</v>
+        <v>87.6826606163485</v>
       </c>
       <c r="M21" t="n">
-        <v>110.388345529859</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="N21" t="n">
-        <v>110.388345529859</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="O21" t="n">
-        <v>109.5805446934422</v>
+        <v>109.5805446934421</v>
       </c>
       <c r="P21" t="n">
         <v>4.735859300168696</v>
@@ -36284,13 +36284,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>11.63235931942489</v>
+        <v>11.63235931942484</v>
       </c>
       <c r="M22" t="n">
-        <v>18.95081043947224</v>
+        <v>18.95081043947221</v>
       </c>
       <c r="N22" t="n">
-        <v>29.47159158657198</v>
+        <v>29.47159158657195</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>80.28009235647676</v>
       </c>
       <c r="L23" t="n">
-        <v>49.55444753054451</v>
+        <v>49.55444753054445</v>
       </c>
       <c r="M23" t="n">
-        <v>135.790642079861</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N23" t="n">
-        <v>135.790642079861</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="O23" t="n">
-        <v>111.6898950079327</v>
+        <v>90.67947405951628</v>
       </c>
       <c r="P23" t="n">
-        <v>104.8504510321595</v>
+        <v>104.8504510321594</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>14.31749127683485</v>
+        <v>14.31749127683483</v>
       </c>
       <c r="L24" t="n">
-        <v>87.68266061634856</v>
+        <v>87.6826606163485</v>
       </c>
       <c r="M24" t="n">
-        <v>130.9169026516646</v>
+        <v>130.9169026516645</v>
       </c>
       <c r="N24" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="O24" t="n">
-        <v>109.5805446934422</v>
+        <v>109.5805446934421</v>
       </c>
       <c r="P24" t="n">
-        <v>59.38783641220752</v>
+        <v>59.38783641220746</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36521,13 +36521,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>11.63235931942489</v>
+        <v>11.63235931942484</v>
       </c>
       <c r="M25" t="n">
-        <v>18.95081043947224</v>
+        <v>18.95081043947221</v>
       </c>
       <c r="N25" t="n">
-        <v>29.47159158657198</v>
+        <v>29.47159158657195</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="M26" t="n">
-        <v>134.5236611332038</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="N26" t="n">
         <v>110.388345529859</v>
       </c>
       <c r="O26" t="n">
-        <v>135.790642079861</v>
+        <v>134.5236611332037</v>
       </c>
       <c r="P26" t="n">
         <v>21.18278690757398</v>
@@ -36682,10 +36682,10 @@
         <v>87.68266061634856</v>
       </c>
       <c r="M27" t="n">
-        <v>130.9169026516646</v>
+        <v>130.9169026516644</v>
       </c>
       <c r="N27" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="O27" t="n">
         <v>109.5805446934422</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>80.28009235647681</v>
       </c>
       <c r="L29" t="n">
-        <v>135.790642079861</v>
+        <v>55.69715490307502</v>
       </c>
       <c r="M29" t="n">
-        <v>109.1213645832017</v>
+        <v>101.9232672218028</v>
       </c>
       <c r="N29" t="n">
-        <v>135.790642079861</v>
+        <v>110.388345529859</v>
       </c>
       <c r="O29" t="n">
-        <v>135.790642079861</v>
+        <v>84.53676668698535</v>
       </c>
       <c r="P29" t="n">
-        <v>21.18278690757398</v>
+        <v>104.8504510321595</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>130.9169026516646</v>
       </c>
       <c r="N30" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="O30" t="n">
         <v>109.5805446934422</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="M32" t="n">
-        <v>109.1213645832017</v>
+        <v>101.9232672218028</v>
       </c>
       <c r="N32" t="n">
-        <v>135.790642079861</v>
+        <v>110.5749507095499</v>
       </c>
       <c r="O32" t="n">
-        <v>135.790642079861</v>
+        <v>84.53676668698535</v>
       </c>
       <c r="P32" t="n">
-        <v>21.18278690757398</v>
+        <v>104.8504510321595</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>130.9169026516646</v>
       </c>
       <c r="N33" t="n">
-        <v>135.790642079861</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="O33" t="n">
         <v>109.5805446934422</v>
@@ -37308,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>69.5076330697466</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>49.55444753054451</v>
+        <v>93.21050175741756</v>
       </c>
       <c r="M35" t="n">
         <v>101.9232672218028</v>
@@ -37320,7 +37320,7 @@
         <v>110.388345529859</v>
       </c>
       <c r="O35" t="n">
-        <v>84.53676668698535</v>
+        <v>110.388345529859</v>
       </c>
       <c r="P35" t="n">
         <v>21.18278690757398</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>14.31749127683486</v>
       </c>
       <c r="L36" t="n">
         <v>87.68266061634856</v>
@@ -37399,10 +37399,10 @@
         <v>110.388345529859</v>
       </c>
       <c r="O36" t="n">
-        <v>69.24605885823826</v>
+        <v>109.5805446934422</v>
       </c>
       <c r="P36" t="n">
-        <v>59.38783641220752</v>
+        <v>4.735859300168696</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>69.5076330697466</v>
       </c>
       <c r="L38" t="n">
         <v>49.55444753054451</v>
@@ -37560,7 +37560,7 @@
         <v>84.53676668698535</v>
       </c>
       <c r="P38" t="n">
-        <v>90.6904199773206</v>
+        <v>21.18278690757398</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>87.68266061634856</v>
       </c>
       <c r="M39" t="n">
+        <v>110.388345529859</v>
+      </c>
+      <c r="N39" t="n">
         <v>55.73636841782016</v>
-      </c>
-      <c r="N39" t="n">
-        <v>110.388345529859</v>
       </c>
       <c r="O39" t="n">
         <v>109.5805446934422</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>14.31749127683486</v>
       </c>
       <c r="L42" t="n">
         <v>87.68266061634856</v>
@@ -37873,7 +37873,7 @@
         <v>101.9232672218028</v>
       </c>
       <c r="O42" t="n">
-        <v>52.65792560810806</v>
+        <v>38.34043433127316</v>
       </c>
       <c r="P42" t="n">
         <v>59.38783641220752</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>14.31749127683486</v>
       </c>
       <c r="L45" t="n">
-        <v>38.41731900265381</v>
+        <v>87.68266061634856</v>
       </c>
       <c r="M45" t="n">
         <v>101.9232672218028</v>
@@ -38110,7 +38110,7 @@
         <v>101.9232672218028</v>
       </c>
       <c r="O45" t="n">
-        <v>101.9232672218028</v>
+        <v>38.34043433127316</v>
       </c>
       <c r="P45" t="n">
         <v>59.38783641220752</v>
